--- a/raw_data/20200818_saline/20200818_Sensor1_Test_34.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_34.xlsx
@@ -1,1067 +1,1483 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC003164-23BF-4D4F-81BB-1247A3DF2007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>29888.290946</v>
+        <v>29888.290946000001</v>
       </c>
       <c r="B2" s="1">
-        <v>8.302303</v>
+        <v>8.3023030000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>901.750000</v>
+        <v>901.75</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.514000</v>
+        <v>-202.51400000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>29898.694068</v>
+        <v>29898.694068000001</v>
       </c>
       <c r="G2" s="1">
-        <v>8.305193</v>
+        <v>8.3051929999999992</v>
       </c>
       <c r="H2" s="1">
-        <v>919.694000</v>
+        <v>919.69399999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.167000</v>
+        <v>-171.167</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>29909.385800</v>
+        <v>29909.3858</v>
       </c>
       <c r="L2" s="1">
-        <v>8.308163</v>
+        <v>8.3081630000000004</v>
       </c>
       <c r="M2" s="1">
-        <v>943.029000</v>
+        <v>943.029</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.883000</v>
+        <v>-120.883</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>29920.226360</v>
+        <v>29920.226360000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.311174</v>
+        <v>8.3111739999999994</v>
       </c>
       <c r="R2" s="1">
-        <v>949.720000</v>
+        <v>949.72</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.401000</v>
+        <v>-104.401</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>29930.803050</v>
+        <v>29930.803049999999</v>
       </c>
       <c r="V2" s="1">
-        <v>8.314112</v>
+        <v>8.3141119999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>956.175000</v>
+        <v>956.17499999999995</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.986500</v>
+        <v>-88.986500000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>29940.953213</v>
+        <v>29940.953213000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.316931</v>
+        <v>8.3169310000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.147000</v>
+        <v>963.14700000000005</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.105200</v>
+        <v>-77.105199999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>29951.161840</v>
+        <v>29951.161840000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.319767</v>
+        <v>8.3197670000000006</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.862000</v>
+        <v>967.86199999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.771100</v>
+        <v>-74.771100000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>29961.270802</v>
+        <v>29961.270801999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.322575</v>
+        <v>8.3225750000000005</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.967000</v>
+        <v>974.96699999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.343400</v>
+        <v>-79.343400000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>29971.866874</v>
+        <v>29971.866873999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.325519</v>
+        <v>8.3255189999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.000000</v>
+        <v>983</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.798700</v>
+        <v>-90.798699999999997</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>29982.798197</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.328555</v>
+        <v>8.3285549999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>992.776000</v>
+        <v>992.77599999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.293000</v>
+        <v>-108.29300000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>29993.956706</v>
+        <v>29993.956706000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.331655</v>
+        <v>8.3316549999999996</v>
       </c>
       <c r="BA2" s="1">
-        <v>1000.950000</v>
+        <v>1000.95</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.834000</v>
+        <v>-123.834</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>30004.969336</v>
+        <v>30004.969335999998</v>
       </c>
       <c r="BE2" s="1">
         <v>8.334714</v>
       </c>
       <c r="BF2" s="1">
-        <v>1039.260000</v>
+        <v>1039.26</v>
       </c>
       <c r="BG2" s="1">
-        <v>-195.248000</v>
+        <v>-195.24799999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>30016.001850</v>
+        <v>30016.001850000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.337778</v>
+        <v>8.3377780000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.240000</v>
+        <v>1105.24</v>
       </c>
       <c r="BL2" s="1">
-        <v>-311.319000</v>
+        <v>-311.31900000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>30027.079499</v>
+        <v>30027.079498999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.340855</v>
+        <v>8.3408549999999995</v>
       </c>
       <c r="BP2" s="1">
-        <v>1212.380000</v>
+        <v>1212.3800000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-494.675000</v>
+        <v>-494.67500000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>30037.831773</v>
+        <v>30037.831773000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.343842</v>
+        <v>8.3438420000000004</v>
       </c>
       <c r="BU2" s="1">
-        <v>1333.520000</v>
+        <v>1333.52</v>
       </c>
       <c r="BV2" s="1">
-        <v>-696.482000</v>
+        <v>-696.48199999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>30049.305725</v>
+        <v>30049.305724999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.347029</v>
+        <v>8.3470289999999991</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1468.710000</v>
+        <v>1468.71</v>
       </c>
       <c r="CA2" s="1">
-        <v>-911.290000</v>
+        <v>-911.29</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>30060.478112</v>
+        <v>30060.478112000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.350133</v>
+        <v>8.3501329999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>1825.460000</v>
+        <v>1825.46</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1422.480000</v>
+        <v>-1422.48</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>29888.670914</v>
+        <v>29888.670913999998</v>
       </c>
       <c r="B3" s="1">
-        <v>8.302409</v>
+        <v>8.3024090000000008</v>
       </c>
       <c r="C3" s="1">
-        <v>901.755000</v>
+        <v>901.755</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.471000</v>
+        <v>-202.471</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>29899.349781</v>
+        <v>29899.349781000001</v>
       </c>
       <c r="G3" s="1">
-        <v>8.305375</v>
+        <v>8.3053749999999997</v>
       </c>
       <c r="H3" s="1">
-        <v>919.437000</v>
+        <v>919.43700000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.408000</v>
+        <v>-171.40799999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>29910.069781</v>
+        <v>29910.069780999998</v>
       </c>
       <c r="L3" s="1">
-        <v>8.308353</v>
+        <v>8.3083530000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>942.959000</v>
+        <v>942.95899999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.056000</v>
+        <v>-121.056</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>29920.639527</v>
+        <v>29920.639526999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.311289</v>
+        <v>8.3112890000000004</v>
       </c>
       <c r="R3" s="1">
-        <v>949.718000</v>
+        <v>949.71799999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.459000</v>
+        <v>-104.459</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>29931.147769</v>
+        <v>29931.147768999999</v>
       </c>
       <c r="V3" s="1">
-        <v>8.314208</v>
+        <v>8.3142080000000007</v>
       </c>
       <c r="W3" s="1">
-        <v>956.150000</v>
+        <v>956.15</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.136400</v>
+        <v>-89.136399999999995</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>29941.303356</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.317029</v>
+        <v>8.3170289999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.242000</v>
+        <v>963.24199999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.092900</v>
+        <v>-77.0929</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>29951.538798</v>
+        <v>29951.538798000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.319872</v>
+        <v>8.3198720000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.867000</v>
+        <v>967.86699999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.777000</v>
+        <v>-74.777000000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>29961.659665</v>
+        <v>29961.659664999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.322683</v>
+        <v>8.3226829999999996</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.972000</v>
+        <v>974.97199999999998</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.335200</v>
+        <v>-79.3352</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>29972.284003</v>
+        <v>29972.284003000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.325634</v>
+        <v>8.3256340000000009</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.975000</v>
+        <v>982.97500000000002</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.775300</v>
+        <v>-90.775300000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>29983.232166</v>
+        <v>29983.232166000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.328676</v>
+        <v>8.3286759999999997</v>
       </c>
       <c r="AV3" s="1">
-        <v>992.751000</v>
+        <v>992.75099999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.305000</v>
+        <v>-108.30500000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>29994.375821</v>
+        <v>29994.375821000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.331771</v>
+        <v>8.3317709999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1000.930000</v>
+        <v>1000.93</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.834000</v>
+        <v>-123.834</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>30005.330921</v>
+        <v>30005.330921000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.334814</v>
+        <v>8.3348139999999997</v>
       </c>
       <c r="BF3" s="1">
-        <v>1039.260000</v>
+        <v>1039.26</v>
       </c>
       <c r="BG3" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>30016.390713</v>
+        <v>30016.390713000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.337886</v>
+        <v>8.3378859999999992</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.240000</v>
+        <v>1105.24</v>
       </c>
       <c r="BL3" s="1">
-        <v>-311.329000</v>
+        <v>-311.32900000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>30027.498122</v>
+        <v>30027.498122000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.340972</v>
+        <v>8.3409720000000007</v>
       </c>
       <c r="BP3" s="1">
-        <v>1212.410000</v>
+        <v>1212.4100000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-494.752000</v>
+        <v>-494.75200000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>30038.279660</v>
+        <v>30038.27966</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.343967</v>
+        <v>8.3439669999999992</v>
       </c>
       <c r="BU3" s="1">
-        <v>1333.510000</v>
+        <v>1333.51</v>
       </c>
       <c r="BV3" s="1">
-        <v>-696.477000</v>
+        <v>-696.47699999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>30049.773949</v>
+        <v>30049.773948999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.347159</v>
+        <v>8.3471589999999996</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1468.750000</v>
+        <v>1468.75</v>
       </c>
       <c r="CA3" s="1">
-        <v>-911.265000</v>
+        <v>-911.26499999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>30061.044047</v>
+        <v>30061.044046999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.350290</v>
+        <v>8.3502899999999993</v>
       </c>
       <c r="CE3" s="1">
-        <v>1825.650000</v>
+        <v>1825.65</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1422.620000</v>
+        <v>-1422.62</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>29889.334528</v>
+        <v>29889.334527999999</v>
       </c>
       <c r="B4" s="1">
-        <v>8.302593</v>
+        <v>8.3025929999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>901.683000</v>
+        <v>901.68299999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.614000</v>
+        <v>-202.614</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>29899.726211</v>
+        <v>29899.726211000001</v>
       </c>
       <c r="G4" s="1">
-        <v>8.305480</v>
+        <v>8.3054799999999993</v>
       </c>
       <c r="H4" s="1">
-        <v>919.733000</v>
+        <v>919.73299999999995</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.077000</v>
+        <v>-171.077</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>29910.459639</v>
+        <v>29910.459639000001</v>
       </c>
       <c r="L4" s="1">
-        <v>8.308461</v>
+        <v>8.3084609999999994</v>
       </c>
       <c r="M4" s="1">
-        <v>943.007000</v>
+        <v>943.00699999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.032000</v>
+        <v>-121.032</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>29920.989207</v>
+        <v>29920.989206999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>8.311386</v>
+        <v>8.3113860000000006</v>
       </c>
       <c r="R4" s="1">
-        <v>949.714000</v>
+        <v>949.71400000000006</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.446000</v>
+        <v>-104.446</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>29931.489049</v>
       </c>
       <c r="V4" s="1">
-        <v>8.314303</v>
+        <v>8.3143030000000007</v>
       </c>
       <c r="W4" s="1">
-        <v>956.184000</v>
+        <v>956.18399999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.070200</v>
+        <v>-89.0702</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>29941.653036</v>
@@ -1070,133 +1486,133 @@
         <v>8.317126</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.179000</v>
+        <v>963.17899999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.875100</v>
+        <v>-76.875100000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>29951.961886</v>
+        <v>29951.961886000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.319989</v>
+        <v>8.3199889999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.872000</v>
+        <v>967.87199999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.804600</v>
+        <v>-74.804599999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>29962.381879</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.322884</v>
+        <v>8.3228840000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.955000</v>
+        <v>974.95500000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.320200</v>
+        <v>-79.3202</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>29972.627203</v>
       </c>
       <c r="AP4" s="1">
-        <v>8.325730</v>
+        <v>8.3257300000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.996000</v>
+        <v>982.99599999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.783700</v>
+        <v>-90.783699999999996</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>29983.595244</v>
       </c>
       <c r="AU4" s="1">
-        <v>8.328776</v>
+        <v>8.3287759999999995</v>
       </c>
       <c r="AV4" s="1">
-        <v>992.755000</v>
+        <v>992.755</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.294000</v>
+        <v>-108.294</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>29994.733893</v>
+        <v>29994.733893000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.331871</v>
+        <v>8.3318709999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>1000.930000</v>
+        <v>1000.93</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.838000</v>
+        <v>-123.83799999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>30005.692999</v>
+        <v>30005.692998999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.334915</v>
+        <v>8.3349150000000005</v>
       </c>
       <c r="BF4" s="1">
-        <v>1039.250000</v>
+        <v>1039.25</v>
       </c>
       <c r="BG4" s="1">
-        <v>-195.240000</v>
+        <v>-195.24</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>30017.142648</v>
+        <v>30017.142648000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>8.338095</v>
+        <v>8.3380949999999991</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.230000</v>
+        <v>1105.23</v>
       </c>
       <c r="BL4" s="1">
-        <v>-311.305000</v>
+        <v>-311.30500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>30028.315064</v>
+        <v>30028.315063999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.341199</v>
+        <v>8.3411989999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1212.400000</v>
+        <v>1212.4000000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-494.719000</v>
+        <v>-494.71899999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>30038.712173</v>
@@ -1205,1782 +1621,1782 @@
         <v>8.344087</v>
       </c>
       <c r="BU4" s="1">
-        <v>1333.480000</v>
+        <v>1333.48</v>
       </c>
       <c r="BV4" s="1">
-        <v>-696.586000</v>
+        <v>-696.58600000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>30050.222034</v>
+        <v>30050.222033999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.347284</v>
+        <v>8.3472840000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1468.790000</v>
+        <v>1468.79</v>
       </c>
       <c r="CA4" s="1">
-        <v>-911.345000</v>
+        <v>-911.34500000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>30061.870878</v>
+        <v>30061.870878000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.350520</v>
+        <v>8.3505199999999995</v>
       </c>
       <c r="CE4" s="1">
-        <v>1825.640000</v>
+        <v>1825.64</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1421.440000</v>
+        <v>-1421.44</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>29889.696151</v>
       </c>
       <c r="B5" s="1">
-        <v>8.302693</v>
+        <v>8.3026929999999997</v>
       </c>
       <c r="C5" s="1">
-        <v>901.755000</v>
+        <v>901.755</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.806000</v>
+        <v>-202.80600000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>29900.290195</v>
+        <v>29900.290195000001</v>
       </c>
       <c r="G5" s="1">
-        <v>8.305636</v>
+        <v>8.3056359999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>919.564000</v>
+        <v>919.56399999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-170.838000</v>
+        <v>-170.83799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>29910.803861</v>
       </c>
       <c r="L5" s="1">
-        <v>8.308557</v>
+        <v>8.3085570000000004</v>
       </c>
       <c r="M5" s="1">
-        <v>942.998000</v>
+        <v>942.99800000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.165000</v>
+        <v>-121.16500000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>29921.335447</v>
+        <v>29921.335447000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.311482</v>
+        <v>8.3114819999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>949.742000</v>
+        <v>949.74199999999996</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.454000</v>
+        <v>-104.45399999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>29931.907658</v>
       </c>
       <c r="V5" s="1">
-        <v>8.314419</v>
+        <v>8.3144189999999991</v>
       </c>
       <c r="W5" s="1">
-        <v>956.228000</v>
+        <v>956.22799999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.097000</v>
+        <v>-89.096999999999994</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>29942.067691</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.317241</v>
+        <v>8.3172409999999992</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.195000</v>
+        <v>963.19500000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.141200</v>
+        <v>-77.141199999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>29952.228269</v>
+        <v>29952.228268999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.320063</v>
+        <v>8.3200629999999993</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.814000</v>
+        <v>967.81399999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.763600</v>
+        <v>-74.763599999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>29962.733041</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.322981</v>
+        <v>8.3229810000000004</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.959000</v>
+        <v>974.95899999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.353300</v>
+        <v>-79.353300000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>29972.987795</v>
+        <v>29972.987795000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.325830</v>
+        <v>8.3258299999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.005000</v>
+        <v>983.005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.792300</v>
+        <v>-90.792299999999997</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>29983.960323</v>
+        <v>29983.960322999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.328878</v>
+        <v>8.3288779999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>992.781000</v>
+        <v>992.78099999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.298000</v>
+        <v>-108.298</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>29995.444165</v>
+        <v>29995.444165000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.332068</v>
+        <v>8.3320679999999996</v>
       </c>
       <c r="BA5" s="1">
-        <v>1000.930000</v>
+        <v>1000.93</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.813000</v>
+        <v>-123.813</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>30006.424630</v>
+        <v>30006.424630000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.335118</v>
+        <v>8.3351179999999996</v>
       </c>
       <c r="BF5" s="1">
-        <v>1039.280000</v>
+        <v>1039.28</v>
       </c>
       <c r="BG5" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>30017.544407</v>
+        <v>30017.544407000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.338207</v>
+        <v>8.3382070000000006</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.230000</v>
+        <v>1105.23</v>
       </c>
       <c r="BL5" s="1">
-        <v>-311.358000</v>
+        <v>-311.358</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>30028.730680</v>
+        <v>30028.730680000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.341314</v>
+        <v>8.3413140000000006</v>
       </c>
       <c r="BP5" s="1">
-        <v>1212.410000</v>
+        <v>1212.4100000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-494.723000</v>
+        <v>-494.72300000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>30039.141707</v>
+        <v>30039.141706999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.344206</v>
+        <v>8.3442059999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1333.370000</v>
+        <v>1333.37</v>
       </c>
       <c r="BV5" s="1">
-        <v>-696.639000</v>
+        <v>-696.63900000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>30050.962363</v>
+        <v>30050.962362999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.347490</v>
+        <v>8.3474900000000005</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1468.690000</v>
+        <v>1468.69</v>
       </c>
       <c r="CA5" s="1">
-        <v>-911.379000</v>
+        <v>-911.37900000000002</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>30062.113421</v>
+        <v>30062.113420999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.350587</v>
+        <v>8.3505870000000009</v>
       </c>
       <c r="CE5" s="1">
-        <v>1824.140000</v>
+        <v>1824.14</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1421.990000</v>
+        <v>-1421.99</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>29890.039345</v>
+        <v>29890.039345000001</v>
       </c>
       <c r="B6" s="1">
-        <v>8.302789</v>
+        <v>8.3027890000000006</v>
       </c>
       <c r="C6" s="1">
-        <v>901.580000</v>
+        <v>901.58</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.725000</v>
+        <v>-202.72499999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>29900.643314</v>
+        <v>29900.643314000001</v>
       </c>
       <c r="G6" s="1">
-        <v>8.305734</v>
+        <v>8.3057339999999993</v>
       </c>
       <c r="H6" s="1">
-        <v>919.831000</v>
+        <v>919.83100000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-170.892000</v>
+        <v>-170.892</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>29911.155028</v>
+        <v>29911.155028000001</v>
       </c>
       <c r="L6" s="1">
-        <v>8.308654</v>
+        <v>8.3086540000000007</v>
       </c>
       <c r="M6" s="1">
-        <v>942.967000</v>
+        <v>942.96699999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.042000</v>
+        <v>-121.042</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>29921.907797</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.311641</v>
+        <v>8.3116409999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>949.713000</v>
+        <v>949.71299999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.415000</v>
+        <v>-104.41500000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>29932.186925</v>
+        <v>29932.186925000002</v>
       </c>
       <c r="V6" s="1">
-        <v>8.314496</v>
+        <v>8.3144960000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>956.249000</v>
+        <v>956.24900000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.047300</v>
+        <v>-89.047300000000007</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>29942.366807</v>
+        <v>29942.366806999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.317324</v>
+        <v>8.3173239999999993</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.256000</v>
+        <v>963.25599999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.089600</v>
+        <v>-77.089600000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>29952.571505</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.320159</v>
+        <v>8.3201590000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.843000</v>
+        <v>967.84299999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.819000</v>
+        <v>-74.819000000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>29963.082224</v>
+        <v>29963.082224000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.323078</v>
+        <v>8.3230780000000006</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.987000</v>
+        <v>974.98699999999997</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.350100</v>
+        <v>-79.350099999999998</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>29973.347394</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.325930</v>
+        <v>8.3259299999999996</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.992000</v>
+        <v>982.99199999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.786300</v>
+        <v>-90.786299999999997</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>29984.690438</v>
+        <v>29984.690438000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.329081</v>
+        <v>8.3290810000000004</v>
       </c>
       <c r="AV6" s="1">
-        <v>992.738000</v>
+        <v>992.73800000000006</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.282000</v>
+        <v>-108.282</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>29995.843694</v>
+        <v>29995.843693999999</v>
       </c>
       <c r="AZ6" s="1">
         <v>8.332179</v>
       </c>
       <c r="BA6" s="1">
-        <v>1000.900000</v>
+        <v>1000.9</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.840000</v>
+        <v>-123.84</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>30006.801063</v>
+        <v>30006.801062999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.335223</v>
+        <v>8.3352229999999992</v>
       </c>
       <c r="BF6" s="1">
-        <v>1039.260000</v>
+        <v>1039.26</v>
       </c>
       <c r="BG6" s="1">
-        <v>-195.273000</v>
+        <v>-195.273</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>30017.914951</v>
+        <v>30017.914950999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.338310</v>
+        <v>8.3383099999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.240000</v>
+        <v>1105.24</v>
       </c>
       <c r="BL6" s="1">
-        <v>-311.329000</v>
+        <v>-311.32900000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>30029.439961</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.341511</v>
+        <v>8.3415110000000006</v>
       </c>
       <c r="BP6" s="1">
-        <v>1212.390000</v>
+        <v>1212.3900000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-494.733000</v>
+        <v>-494.733</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>30039.853498</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.344404</v>
+        <v>8.3444040000000008</v>
       </c>
       <c r="BU6" s="1">
-        <v>1333.360000</v>
+        <v>1333.36</v>
       </c>
       <c r="BV6" s="1">
-        <v>-696.635000</v>
+        <v>-696.63499999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>30051.086859</v>
+        <v>30051.086858999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.347524</v>
+        <v>8.3475239999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1468.700000</v>
+        <v>1468.7</v>
       </c>
       <c r="CA6" s="1">
-        <v>-911.373000</v>
+        <v>-911.37300000000005</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>30062.645628</v>
+        <v>30062.645627999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.350735</v>
+        <v>8.3507350000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1825.450000</v>
+        <v>1825.45</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1422.600000</v>
+        <v>-1422.6</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>29890.378641</v>
+        <v>29890.378640999999</v>
       </c>
       <c r="B7" s="1">
-        <v>8.302883</v>
+        <v>8.3028829999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>901.560000</v>
+        <v>901.56</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.528000</v>
+        <v>-202.52799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>29901.071889</v>
+        <v>29901.071888999999</v>
       </c>
       <c r="G7" s="1">
-        <v>8.305853</v>
+        <v>8.3058530000000008</v>
       </c>
       <c r="H7" s="1">
-        <v>919.795000</v>
+        <v>919.79499999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-170.888000</v>
+        <v>-170.88800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>29911.564724</v>
       </c>
       <c r="L7" s="1">
-        <v>8.308768</v>
+        <v>8.3087680000000006</v>
       </c>
       <c r="M7" s="1">
-        <v>942.927000</v>
+        <v>942.92700000000002</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.080000</v>
+        <v>-121.08</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>29922.265447</v>
+        <v>29922.265447000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.311740</v>
+        <v>8.3117400000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>949.692000</v>
+        <v>949.69200000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.419000</v>
+        <v>-104.419</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>29932.530152</v>
+        <v>29932.530151999999</v>
       </c>
       <c r="V7" s="1">
-        <v>8.314592</v>
+        <v>8.3145919999999993</v>
       </c>
       <c r="W7" s="1">
-        <v>956.255000</v>
+        <v>956.255</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.095600</v>
+        <v>-89.095600000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>29942.717947</v>
+        <v>29942.717947000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.317422</v>
+        <v>8.3174220000000005</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.173000</v>
+        <v>963.173</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.147100</v>
+        <v>-77.147099999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>29952.913709</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.320254</v>
+        <v>8.3202540000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.862000</v>
+        <v>967.86199999999997</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.769500</v>
+        <v>-74.769499999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>29963.779070</v>
+        <v>29963.779070000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.323272</v>
+        <v>8.3232719999999993</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.977000</v>
+        <v>974.97699999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.353200</v>
+        <v>-79.353200000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>29974.067089</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.326130</v>
+        <v>8.3261299999999991</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.995000</v>
+        <v>982.995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.779400</v>
+        <v>-90.779399999999995</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>29985.080786</v>
+        <v>29985.080785999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.329189</v>
+        <v>8.3291889999999995</v>
       </c>
       <c r="AV7" s="1">
-        <v>992.746000</v>
+        <v>992.74599999999998</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.294000</v>
+        <v>-108.294</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>29996.210247</v>
+        <v>29996.210246999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>8.332281</v>
       </c>
       <c r="BA7" s="1">
-        <v>1000.910000</v>
+        <v>1000.91</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.844000</v>
+        <v>-123.84399999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>30007.164134</v>
+        <v>30007.164133999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.335323</v>
+        <v>8.3353230000000007</v>
       </c>
       <c r="BF7" s="1">
-        <v>1039.250000</v>
+        <v>1039.25</v>
       </c>
       <c r="BG7" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>30018.601879</v>
+        <v>30018.601879000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.338501</v>
+        <v>8.3385010000000008</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.220000</v>
+        <v>1105.22</v>
       </c>
       <c r="BL7" s="1">
-        <v>-311.335000</v>
+        <v>-311.33499999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>30029.547096</v>
+        <v>30029.547095999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.341541</v>
+        <v>8.3415409999999994</v>
       </c>
       <c r="BP7" s="1">
-        <v>1212.380000</v>
+        <v>1212.3800000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-494.776000</v>
+        <v>-494.77600000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>30039.984937</v>
+        <v>30039.984937000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.344440</v>
+        <v>8.3444400000000005</v>
       </c>
       <c r="BU7" s="1">
-        <v>1333.250000</v>
+        <v>1333.25</v>
       </c>
       <c r="BV7" s="1">
-        <v>-696.669000</v>
+        <v>-696.66899999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>30051.508459</v>
+        <v>30051.508459000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.347641</v>
+        <v>8.3476409999999994</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1468.750000</v>
+        <v>1468.75</v>
       </c>
       <c r="CA7" s="1">
-        <v>-911.370000</v>
+        <v>-911.37</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>30063.186766</v>
+        <v>30063.186765999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.350885</v>
+        <v>8.3508849999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1825.170000</v>
+        <v>1825.17</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1421.050000</v>
+        <v>-1421.05</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>29890.808639</v>
+        <v>29890.808638999999</v>
       </c>
       <c r="B8" s="1">
-        <v>8.303002</v>
+        <v>8.3030019999999993</v>
       </c>
       <c r="C8" s="1">
-        <v>901.683000</v>
+        <v>901.68299999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.537000</v>
+        <v>-202.53700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>29901.351105</v>
+        <v>29901.351105000002</v>
       </c>
       <c r="G8" s="1">
-        <v>8.305931</v>
+        <v>8.3059309999999993</v>
       </c>
       <c r="H8" s="1">
-        <v>919.534000</v>
+        <v>919.53399999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.305000</v>
+        <v>-171.30500000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>29911.859882</v>
+        <v>29911.859882000001</v>
       </c>
       <c r="L8" s="1">
-        <v>8.308850</v>
+        <v>8.3088499999999996</v>
       </c>
       <c r="M8" s="1">
-        <v>943.214000</v>
+        <v>943.21400000000006</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.032000</v>
+        <v>-121.032</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>29922.615125</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.311838</v>
+        <v>8.3118379999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>949.712000</v>
+        <v>949.71199999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.443000</v>
+        <v>-104.443</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>29932.875865</v>
+        <v>29932.875865000002</v>
       </c>
       <c r="V8" s="1">
-        <v>8.314688</v>
+        <v>8.3146880000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>956.134000</v>
+        <v>956.13400000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.102500</v>
+        <v>-89.102500000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>29943.067131</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.317519</v>
+        <v>8.3175190000000008</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.293000</v>
+        <v>963.29300000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.128800</v>
+        <v>-77.128799999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>29953.601164</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.320445</v>
+        <v>8.3204449999999994</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.818000</v>
+        <v>967.81799999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.765000</v>
+        <v>-74.765000000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>29964.123325</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.323368</v>
+        <v>8.3233680000000003</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.949000</v>
+        <v>974.94899999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.337200</v>
+        <v>-79.337199999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>29974.428178</v>
+        <v>29974.428177999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.326230</v>
+        <v>8.3262300000000007</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.005000</v>
+        <v>983.005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.752100</v>
+        <v>-90.752099999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>29985.444505</v>
+        <v>29985.444504999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.329290</v>
+        <v>8.3292900000000003</v>
       </c>
       <c r="AV8" s="1">
-        <v>992.760000</v>
+        <v>992.76</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.266000</v>
+        <v>-108.26600000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>29996.875124</v>
+        <v>29996.875123999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.332465</v>
+        <v>8.3324649999999991</v>
       </c>
       <c r="BA8" s="1">
-        <v>1000.930000</v>
+        <v>1000.93</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.839000</v>
+        <v>-123.839</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>30007.828772</v>
+        <v>30007.828772000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.335508</v>
+        <v>8.3355080000000008</v>
       </c>
       <c r="BF8" s="1">
-        <v>1039.280000</v>
+        <v>1039.28</v>
       </c>
       <c r="BG8" s="1">
-        <v>-195.246000</v>
+        <v>-195.24600000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>30018.712982</v>
+        <v>30018.712982000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.338531</v>
+        <v>8.3385309999999997</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.250000</v>
+        <v>1105.25</v>
       </c>
       <c r="BL8" s="1">
-        <v>-311.334000</v>
+        <v>-311.334</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>30029.972167</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.341659</v>
+        <v>8.3416589999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1212.410000</v>
+        <v>1212.4100000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-494.747000</v>
+        <v>-494.74700000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>30040.422997</v>
+        <v>30040.422997000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.344562</v>
+        <v>8.3445619999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1333.290000</v>
+        <v>1333.29</v>
       </c>
       <c r="BV8" s="1">
-        <v>-696.668000</v>
+        <v>-696.66800000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>30051.928570</v>
+        <v>30051.92857</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.347758</v>
+        <v>8.3477580000000007</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1468.750000</v>
+        <v>1468.75</v>
       </c>
       <c r="CA8" s="1">
-        <v>-911.488000</v>
+        <v>-911.48800000000006</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>30063.725948</v>
+        <v>30063.725947999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.351035</v>
+        <v>8.3510349999999995</v>
       </c>
       <c r="CE8" s="1">
-        <v>1824.730000</v>
+        <v>1824.73</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1422.630000</v>
+        <v>-1422.63</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>29891.078959</v>
+        <v>29891.078958999999</v>
       </c>
       <c r="B9" s="1">
         <v>8.303077</v>
       </c>
       <c r="C9" s="1">
-        <v>901.670000</v>
+        <v>901.67</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.524000</v>
+        <v>-202.524</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>29901.696321</v>
+        <v>29901.696320999999</v>
       </c>
       <c r="G9" s="1">
-        <v>8.306027</v>
+        <v>8.3060270000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>919.526000</v>
+        <v>919.52599999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>-171.190000</v>
+        <v>-171.19</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>29912.225923</v>
+        <v>29912.225923000002</v>
       </c>
       <c r="L9" s="1">
-        <v>8.308952</v>
+        <v>8.3089519999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>942.882000</v>
+        <v>942.88199999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.927000</v>
+        <v>-120.92700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>29922.960341</v>
+        <v>29922.960341000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.311933</v>
+        <v>8.3119329999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>949.740000</v>
+        <v>949.74</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.438000</v>
+        <v>-104.438</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>29933.563286</v>
+        <v>29933.563286000001</v>
       </c>
       <c r="V9" s="1">
-        <v>8.314879</v>
+        <v>8.3148789999999995</v>
       </c>
       <c r="W9" s="1">
-        <v>956.156000</v>
+        <v>956.15599999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.070900</v>
+        <v>-89.070899999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>29943.762026</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.317712</v>
+        <v>8.3177120000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.187000</v>
+        <v>963.18700000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.050000</v>
+        <v>-77.05</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>29953.945387</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.320540</v>
+        <v>8.3205399999999994</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.856000</v>
+        <v>967.85599999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.764900</v>
+        <v>-74.764899999999997</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>29964.474990</v>
+        <v>29964.474989999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.323465</v>
+        <v>8.3234650000000006</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.979000</v>
+        <v>974.97900000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.356800</v>
+        <v>-79.356800000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>29974.787776</v>
+        <v>29974.787776000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.326330</v>
+        <v>8.3263300000000005</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.998000</v>
+        <v>982.99800000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.787500</v>
+        <v>-90.787499999999994</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>29986.111966</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.329476</v>
+        <v>8.3294759999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>992.728000</v>
+        <v>992.72799999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.313000</v>
+        <v>-108.313</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>29997.293419</v>
+        <v>29997.293419000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.332582</v>
+        <v>8.3325820000000004</v>
       </c>
       <c r="BA9" s="1">
-        <v>1000.910000</v>
+        <v>1000.91</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.840000</v>
+        <v>-123.84</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>30008.278678</v>
+        <v>30008.278677999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.335633</v>
+        <v>8.3356329999999996</v>
       </c>
       <c r="BF9" s="1">
-        <v>1039.270000</v>
+        <v>1039.27</v>
       </c>
       <c r="BG9" s="1">
-        <v>-195.243000</v>
+        <v>-195.24299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>30019.068613</v>
+        <v>30019.068612999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.338630</v>
+        <v>8.3386300000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.230000</v>
+        <v>1105.23</v>
       </c>
       <c r="BL9" s="1">
-        <v>-311.325000</v>
+        <v>-311.32499999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>30030.374918</v>
+        <v>30030.374918000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.341771</v>
+        <v>8.3417709999999996</v>
       </c>
       <c r="BP9" s="1">
-        <v>1212.410000</v>
+        <v>1212.4100000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-494.760000</v>
+        <v>-494.76</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>30040.852409</v>
+        <v>30040.852408999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.344681</v>
+        <v>8.3446809999999996</v>
       </c>
       <c r="BU9" s="1">
-        <v>1333.210000</v>
+        <v>1333.21</v>
       </c>
       <c r="BV9" s="1">
-        <v>-696.630000</v>
+        <v>-696.63</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>30052.376457</v>
+        <v>30052.376456999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.347882</v>
+        <v>8.3478820000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1468.830000</v>
+        <v>1468.83</v>
       </c>
       <c r="CA9" s="1">
-        <v>-911.466000</v>
+        <v>-911.46600000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>30064.270025</v>
+        <v>30064.270025000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.351186</v>
+        <v>8.3511860000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1826.180000</v>
+        <v>1826.18</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1421.820000</v>
+        <v>-1421.82</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>29891.422700</v>
+        <v>29891.422699999999</v>
       </c>
       <c r="B10" s="1">
-        <v>8.303173</v>
+        <v>8.3031729999999992</v>
       </c>
       <c r="C10" s="1">
-        <v>901.633000</v>
+        <v>901.63300000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.647000</v>
+        <v>-202.64699999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>29902.043554</v>
       </c>
       <c r="G10" s="1">
-        <v>8.306123</v>
+        <v>8.3061229999999995</v>
       </c>
       <c r="H10" s="1">
-        <v>919.487000</v>
+        <v>919.48699999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.394000</v>
+        <v>-171.39400000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>29912.914834</v>
+        <v>29912.914833999999</v>
       </c>
       <c r="L10" s="1">
-        <v>8.309143</v>
+        <v>8.3091430000000006</v>
       </c>
       <c r="M10" s="1">
-        <v>942.867000</v>
+        <v>942.86699999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.989000</v>
+        <v>-120.989</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>29923.660196</v>
+        <v>29923.660196000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.312128</v>
+        <v>8.3121279999999995</v>
       </c>
       <c r="R10" s="1">
-        <v>949.672000</v>
+        <v>949.67200000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.453000</v>
+        <v>-104.453</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>29933.907013</v>
       </c>
       <c r="V10" s="1">
-        <v>8.314974</v>
+        <v>8.3149739999999994</v>
       </c>
       <c r="W10" s="1">
-        <v>956.207000</v>
+        <v>956.20699999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.027400</v>
+        <v>-89.0274</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>29944.112697</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.317809</v>
+        <v>8.3178090000000005</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.249000</v>
+        <v>963.24900000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.266600</v>
+        <v>-77.266599999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>29954.295563</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.320638</v>
+        <v>8.3206380000000006</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.885000</v>
+        <v>967.88499999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.802000</v>
+        <v>-74.802000000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>29965.140093</v>
+        <v>29965.140093000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.323650</v>
+        <v>8.3236500000000007</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.975000</v>
+        <v>974.97500000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.361300</v>
+        <v>-79.3613</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>29975.453434</v>
+        <v>29975.453433999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.326515</v>
+        <v>8.3265150000000006</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.982000</v>
+        <v>982.98199999999997</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.781500</v>
+        <v>-90.781499999999994</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>29986.570737</v>
+        <v>29986.570736999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.329603</v>
+        <v>8.3296030000000005</v>
       </c>
       <c r="AV10" s="1">
-        <v>992.763000</v>
+        <v>992.76300000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.308000</v>
+        <v>-108.30800000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>29997.669252</v>
       </c>
       <c r="AZ10" s="1">
-        <v>8.332686</v>
+        <v>8.3326860000000007</v>
       </c>
       <c r="BA10" s="1">
-        <v>1000.940000</v>
+        <v>1000.94</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.826000</v>
+        <v>-123.82599999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>30008.640725</v>
+        <v>30008.640725000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.335734</v>
+        <v>8.3357340000000004</v>
       </c>
       <c r="BF10" s="1">
-        <v>1039.260000</v>
+        <v>1039.26</v>
       </c>
       <c r="BG10" s="1">
-        <v>-195.257000</v>
+        <v>-195.25700000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>30019.445077</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.338735</v>
+        <v>8.3387349999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.220000</v>
+        <v>1105.22</v>
       </c>
       <c r="BL10" s="1">
-        <v>-311.348000</v>
+        <v>-311.34800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>30030.798502</v>
+        <v>30030.798502000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.341888</v>
+        <v>8.3418880000000009</v>
       </c>
       <c r="BP10" s="1">
-        <v>1212.380000</v>
+        <v>1212.3800000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-494.762000</v>
+        <v>-494.762</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>30041.265080</v>
+        <v>30041.265080000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.344796</v>
+        <v>8.3447960000000005</v>
       </c>
       <c r="BU10" s="1">
-        <v>1333.100000</v>
+        <v>1333.1</v>
       </c>
       <c r="BV10" s="1">
-        <v>-696.636000</v>
+        <v>-696.63599999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>30052.798057</v>
       </c>
       <c r="BY10" s="1">
-        <v>8.347999</v>
+        <v>8.3479989999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1468.740000</v>
+        <v>1468.74</v>
       </c>
       <c r="CA10" s="1">
-        <v>-911.397000</v>
+        <v>-911.39700000000005</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>30064.805705</v>
+        <v>30064.805704999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.351335</v>
+        <v>8.3513350000000006</v>
       </c>
       <c r="CE10" s="1">
-        <v>1824.520000</v>
+        <v>1824.52</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1421.770000</v>
+        <v>-1421.77</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>29891.765422</v>
       </c>
       <c r="B11" s="1">
-        <v>8.303268</v>
+        <v>8.3032679999999992</v>
       </c>
       <c r="C11" s="1">
-        <v>901.608000</v>
+        <v>901.60799999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.686000</v>
+        <v>-202.68600000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>29902.740399</v>
+        <v>29902.740398999998</v>
       </c>
       <c r="G11" s="1">
         <v>8.306317</v>
       </c>
       <c r="H11" s="1">
-        <v>919.566000</v>
+        <v>919.56600000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.285000</v>
+        <v>-171.285</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>29913.263025</v>
       </c>
       <c r="L11" s="1">
-        <v>8.309240</v>
+        <v>8.3092400000000008</v>
       </c>
       <c r="M11" s="1">
-        <v>943.191000</v>
+        <v>943.19100000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.991000</v>
+        <v>-120.991</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>29924.007859</v>
+        <v>29924.007859000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.312224</v>
+        <v>8.3122240000000005</v>
       </c>
       <c r="R11" s="1">
-        <v>949.699000</v>
+        <v>949.69899999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.420000</v>
+        <v>-104.42</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>29934.249060</v>
+        <v>29934.249059999998</v>
       </c>
       <c r="V11" s="1">
-        <v>8.315069</v>
+        <v>8.3150689999999994</v>
       </c>
       <c r="W11" s="1">
-        <v>956.174000</v>
+        <v>956.17399999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.055900</v>
+        <v>-89.055899999999994</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>29944.458447</v>
+        <v>29944.458447000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.317905</v>
+        <v>8.3179049999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.198000</v>
+        <v>963.19799999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.166100</v>
+        <v>-77.1661</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>29954.946314</v>
+        <v>29954.946314000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.320818</v>
+        <v>8.3208179999999992</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.852000</v>
+        <v>967.85199999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.813300</v>
+        <v>-74.813299999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>29965.519564</v>
+        <v>29965.519563999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.323755</v>
+        <v>8.3237550000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.979000</v>
+        <v>974.97900000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.327800</v>
+        <v>-79.327799999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>29975.898350</v>
+        <v>29975.898349999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.326638</v>
+        <v>8.3266380000000009</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.996000</v>
+        <v>982.99599999999998</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.793300</v>
+        <v>-90.793300000000002</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>29986.935793</v>
+        <v>29986.935793000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.329704</v>
+        <v>8.3297039999999996</v>
       </c>
       <c r="AV11" s="1">
-        <v>992.755000</v>
+        <v>992.755</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.290000</v>
+        <v>-108.29</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>29998.048658</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.332791</v>
+        <v>8.3327910000000003</v>
       </c>
       <c r="BA11" s="1">
-        <v>1000.910000</v>
+        <v>1000.91</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.821000</v>
+        <v>-123.821</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>30009.000819</v>
+        <v>30009.000819000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.335834</v>
+        <v>8.3358340000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1039.260000</v>
+        <v>1039.26</v>
       </c>
       <c r="BG11" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>30019.867204</v>
+        <v>30019.867203999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.338852</v>
+        <v>8.3388519999999993</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.200000</v>
+        <v>1105.2</v>
       </c>
       <c r="BL11" s="1">
-        <v>-311.333000</v>
+        <v>-311.33300000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>30031.186876</v>
@@ -2989,2947 +3405,2947 @@
         <v>8.341996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1212.420000</v>
+        <v>1212.42</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-494.782000</v>
+        <v>-494.78199999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>30041.694615</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.344915</v>
+        <v>8.3449150000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>1332.990000</v>
+        <v>1332.99</v>
       </c>
       <c r="BV11" s="1">
-        <v>-696.565000</v>
+        <v>-696.56500000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>30053.220681</v>
+        <v>30053.220680999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.348117</v>
+        <v>8.3481170000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1468.760000</v>
+        <v>1468.76</v>
       </c>
       <c r="CA11" s="1">
-        <v>-911.457000</v>
+        <v>-911.45699999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>30065.347833</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.351486</v>
+        <v>8.3514859999999995</v>
       </c>
       <c r="CE11" s="1">
-        <v>1825.540000</v>
+        <v>1825.54</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1423.000000</v>
+        <v>-1423</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>29892.443981</v>
       </c>
       <c r="B12" s="1">
-        <v>8.303457</v>
+        <v>8.3034569999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>901.479000</v>
+        <v>901.47900000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.543000</v>
+        <v>-202.54300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>29903.091071</v>
+        <v>29903.091070999999</v>
       </c>
       <c r="G12" s="1">
-        <v>8.306414</v>
+        <v>8.3064140000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>919.954000</v>
+        <v>919.95399999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.422000</v>
+        <v>-171.422</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>29913.608765</v>
+        <v>29913.608765000001</v>
       </c>
       <c r="L12" s="1">
-        <v>8.309336</v>
+        <v>8.3093360000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>942.915000</v>
+        <v>942.91499999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.910000</v>
+        <v>-120.91</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>29924.358035</v>
+        <v>29924.358035000001</v>
       </c>
       <c r="Q12" s="1">
         <v>8.312322</v>
       </c>
       <c r="R12" s="1">
-        <v>949.706000</v>
+        <v>949.70600000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.393000</v>
+        <v>-104.393</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>29934.902981</v>
+        <v>29934.902980999999</v>
       </c>
       <c r="V12" s="1">
-        <v>8.315251</v>
+        <v>8.3152509999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>956.256000</v>
+        <v>956.25599999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.067600</v>
+        <v>-89.067599999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>29945.119079</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.318089</v>
+        <v>8.3180890000000005</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.163000</v>
+        <v>963.16300000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.051300</v>
+        <v>-77.051299999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>29955.320820</v>
+        <v>29955.320820000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.320922</v>
+        <v>8.3209219999999995</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.867000</v>
+        <v>967.86699999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.787600</v>
+        <v>-74.787599999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>29965.868716</v>
+        <v>29965.868716000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.323852</v>
+        <v>8.3238520000000005</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.976000</v>
+        <v>974.976</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.351400</v>
+        <v>-79.351399999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>29976.262909</v>
+        <v>29976.262909000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.326740</v>
+        <v>8.3267399999999991</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.973000</v>
+        <v>982.97299999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.764100</v>
+        <v>-90.764099999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>29987.301344</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.329806</v>
+        <v>8.3298059999999996</v>
       </c>
       <c r="AV12" s="1">
-        <v>992.748000</v>
+        <v>992.74800000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.294000</v>
+        <v>-108.294</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>29998.474720</v>
+        <v>29998.474719999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.332910</v>
+        <v>8.33291</v>
       </c>
       <c r="BA12" s="1">
-        <v>1000.920000</v>
+        <v>1000.92</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.842000</v>
+        <v>-123.842</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>30009.424403</v>
+        <v>30009.424403000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.335951</v>
+        <v>8.3359509999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1039.270000</v>
+        <v>1039.27</v>
       </c>
       <c r="BG12" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>30020.194567</v>
+        <v>30020.194566999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.338943</v>
+        <v>8.3389430000000004</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.210000</v>
+        <v>1105.21</v>
       </c>
       <c r="BL12" s="1">
-        <v>-311.317000</v>
+        <v>-311.31700000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>30031.611940</v>
+        <v>30031.611939999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.342114</v>
+        <v>8.3421140000000005</v>
       </c>
       <c r="BP12" s="1">
-        <v>1212.410000</v>
+        <v>1212.4100000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-494.722000</v>
+        <v>-494.72199999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>30042.121206</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.345034</v>
+        <v>8.3450340000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1332.910000</v>
+        <v>1332.91</v>
       </c>
       <c r="BV12" s="1">
-        <v>-696.599000</v>
+        <v>-696.59900000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>30053.671016</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.348242</v>
+        <v>8.3482420000000008</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1468.790000</v>
+        <v>1468.79</v>
       </c>
       <c r="CA12" s="1">
-        <v>-911.469000</v>
+        <v>-911.46900000000005</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>30065.887480</v>
+        <v>30065.887480000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.351635</v>
+        <v>8.3516349999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1825.400000</v>
+        <v>1825.4</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1421.460000</v>
+        <v>-1421.46</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>29892.788668</v>
+        <v>29892.788668000001</v>
       </c>
       <c r="B13" s="1">
-        <v>8.303552</v>
+        <v>8.3035519999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>901.646000</v>
+        <v>901.64599999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.437000</v>
+        <v>-202.43700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>29903.431326</v>
+        <v>29903.431326000002</v>
       </c>
       <c r="G13" s="1">
-        <v>8.306509</v>
+        <v>8.3065090000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>919.577000</v>
+        <v>919.577</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.481000</v>
+        <v>-171.48099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>29914.264945</v>
+        <v>29914.264944999999</v>
       </c>
       <c r="L13" s="1">
-        <v>8.309518</v>
+        <v>8.3095180000000006</v>
       </c>
       <c r="M13" s="1">
-        <v>942.945000</v>
+        <v>942.94500000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.909000</v>
+        <v>-120.90900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>29925.018737</v>
+        <v>29925.018736999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.312505</v>
+        <v>8.3125049999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>949.705000</v>
+        <v>949.70500000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.443000</v>
+        <v>-104.443</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>29935.278980</v>
+        <v>29935.278979999999</v>
       </c>
       <c r="V13" s="1">
-        <v>8.315355</v>
+        <v>8.3153550000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>956.184000</v>
+        <v>956.18399999999997</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.053900</v>
+        <v>-89.053899999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>29945.494055</v>
+        <v>29945.494054999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.318193</v>
+        <v>8.3181930000000008</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.244000</v>
+        <v>963.24400000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.086500</v>
+        <v>-77.086500000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>29955.668026</v>
+        <v>29955.668025999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.321019</v>
+        <v>8.3210189999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.837000</v>
+        <v>967.83699999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.771100</v>
+        <v>-74.771100000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>29966.216411</v>
+        <v>29966.216411000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.323949</v>
+        <v>8.3239490000000007</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.961000</v>
+        <v>974.96100000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.361600</v>
+        <v>-79.361599999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>29976.622973</v>
+        <v>29976.622973000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.326840</v>
+        <v>8.3268400000000007</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.973000</v>
+        <v>982.97299999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.780900</v>
+        <v>-90.780900000000003</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>29987.723439</v>
+        <v>29987.723439000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.329923</v>
+        <v>8.3299230000000009</v>
       </c>
       <c r="AV13" s="1">
-        <v>992.738000</v>
+        <v>992.73800000000006</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.305000</v>
+        <v>-108.30500000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>29998.764880</v>
+        <v>29998.764879999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>8.332990</v>
+        <v>8.3329900000000006</v>
       </c>
       <c r="BA13" s="1">
-        <v>1000.920000</v>
+        <v>1000.92</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.831000</v>
+        <v>-123.831</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>30009.723032</v>
+        <v>30009.723032000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.336034</v>
+        <v>8.3360339999999997</v>
       </c>
       <c r="BF13" s="1">
-        <v>1039.270000</v>
+        <v>1039.27</v>
       </c>
       <c r="BG13" s="1">
-        <v>-195.271000</v>
+        <v>-195.27099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>30020.594307</v>
+        <v>30020.594306999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.339054</v>
+        <v>8.3390540000000009</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.200000</v>
+        <v>1105.2</v>
       </c>
       <c r="BL13" s="1">
-        <v>-311.373000</v>
+        <v>-311.37299999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>30031.997334</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.342221</v>
+        <v>8.3422210000000003</v>
       </c>
       <c r="BP13" s="1">
-        <v>1212.410000</v>
+        <v>1212.4100000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-494.791000</v>
+        <v>-494.791</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>30042.535830</v>
+        <v>30042.535830000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.345149</v>
+        <v>8.3451489999999993</v>
       </c>
       <c r="BU13" s="1">
-        <v>1333.040000</v>
+        <v>1333.04</v>
       </c>
       <c r="BV13" s="1">
-        <v>-696.546000</v>
+        <v>-696.54600000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>30054.100056</v>
+        <v>30054.100055999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.348361</v>
+        <v>8.3483610000000006</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1468.840000</v>
+        <v>1468.84</v>
       </c>
       <c r="CA13" s="1">
-        <v>-911.414000</v>
+        <v>-911.41399999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>30066.426630</v>
+        <v>30066.426630000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.351785</v>
+        <v>8.3517849999999996</v>
       </c>
       <c r="CE13" s="1">
-        <v>1824.500000</v>
+        <v>1824.5</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1422.970000</v>
+        <v>-1422.97</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>29893.130445</v>
+        <v>29893.130444999999</v>
       </c>
       <c r="B14" s="1">
-        <v>8.303647</v>
+        <v>8.3036469999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>901.529000</v>
+        <v>901.529</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.762000</v>
+        <v>-202.762</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>29904.089551</v>
+        <v>29904.089551000001</v>
       </c>
       <c r="G14" s="1">
         <v>8.306692</v>
       </c>
       <c r="H14" s="1">
-        <v>919.203000</v>
+        <v>919.20299999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.151000</v>
+        <v>-171.15100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>29914.642399</v>
       </c>
       <c r="L14" s="1">
-        <v>8.309623</v>
+        <v>8.3096230000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>943.063000</v>
+        <v>943.06299999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.149000</v>
+        <v>-121.149</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>29925.403601</v>
+        <v>29925.403601000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>8.312612</v>
+        <v>8.3126119999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>949.671000</v>
+        <v>949.67100000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.443000</v>
+        <v>-104.443</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>29935.621684</v>
+        <v>29935.621684000002</v>
       </c>
       <c r="V14" s="1">
-        <v>8.315450</v>
+        <v>8.3154500000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>956.123000</v>
+        <v>956.12300000000005</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.057100</v>
+        <v>-89.057100000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>29945.851671</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.318292</v>
+        <v>8.3182919999999996</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.240000</v>
+        <v>963.24</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.169500</v>
+        <v>-77.169499999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>29956.009274</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.321114</v>
+        <v>8.3211139999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.862000</v>
+        <v>967.86199999999997</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.767900</v>
+        <v>-74.767899999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>29966.639499</v>
+        <v>29966.639499000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.324067</v>
+        <v>8.3240669999999994</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.973000</v>
+        <v>974.97299999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.364300</v>
+        <v>-79.3643</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>29977.042125</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.326956</v>
+        <v>8.3269559999999991</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.992000</v>
+        <v>982.99199999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.763100</v>
+        <v>-90.763099999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>29988.030463</v>
+        <v>29988.030462999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.330008</v>
+        <v>8.3300079999999994</v>
       </c>
       <c r="AV14" s="1">
-        <v>992.750000</v>
+        <v>992.75</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.320000</v>
+        <v>-108.32</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>29999.124506</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.333090</v>
+        <v>8.3330900000000003</v>
       </c>
       <c r="BA14" s="1">
-        <v>1000.920000</v>
+        <v>1000.92</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.843000</v>
+        <v>-123.843</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>30010.086065</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.336135</v>
+        <v>8.3361350000000005</v>
       </c>
       <c r="BF14" s="1">
-        <v>1039.260000</v>
+        <v>1039.26</v>
       </c>
       <c r="BG14" s="1">
-        <v>-195.245000</v>
+        <v>-195.245</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>30020.970772</v>
+        <v>30020.970772000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.339159</v>
+        <v>8.3391590000000004</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.220000</v>
+        <v>1105.22</v>
       </c>
       <c r="BL14" s="1">
-        <v>-311.359000</v>
+        <v>-311.35899999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>30032.427363</v>
+        <v>30032.427362999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.342341</v>
+        <v>8.3423409999999993</v>
       </c>
       <c r="BP14" s="1">
-        <v>1212.400000</v>
+        <v>1212.4000000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-494.793000</v>
+        <v>-494.79300000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>30042.961399</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.345267</v>
+        <v>8.3452669999999998</v>
       </c>
       <c r="BU14" s="1">
-        <v>1332.910000</v>
+        <v>1332.91</v>
       </c>
       <c r="BV14" s="1">
-        <v>-696.498000</v>
+        <v>-696.49800000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>30054.522150</v>
+        <v>30054.522150000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.348478</v>
+        <v>8.3484780000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1468.720000</v>
+        <v>1468.72</v>
       </c>
       <c r="CA14" s="1">
-        <v>-911.384000</v>
+        <v>-911.38400000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>30066.966774</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.351935</v>
+        <v>8.3519349999999992</v>
       </c>
       <c r="CE14" s="1">
-        <v>1825.990000</v>
+        <v>1825.99</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1422.020000</v>
+        <v>-1422.02</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>29893.779179</v>
+        <v>29893.779179000001</v>
       </c>
       <c r="B15" s="1">
-        <v>8.303828</v>
+        <v>8.3038279999999993</v>
       </c>
       <c r="C15" s="1">
-        <v>901.509000</v>
+        <v>901.50900000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.466000</v>
+        <v>-202.46600000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>29904.466477</v>
+        <v>29904.466477000002</v>
       </c>
       <c r="G15" s="1">
-        <v>8.306796</v>
+        <v>8.3067960000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>919.785000</v>
+        <v>919.78499999999997</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.205000</v>
+        <v>-171.20500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>29914.987151</v>
+        <v>29914.987151000001</v>
       </c>
       <c r="L15" s="1">
-        <v>8.309719</v>
+        <v>8.3097189999999994</v>
       </c>
       <c r="M15" s="1">
-        <v>942.972000</v>
+        <v>942.97199999999998</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.130000</v>
+        <v>-121.13</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>29925.752816</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.312709</v>
+        <v>8.3127089999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>949.674000</v>
+        <v>949.67399999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.458000</v>
+        <v>-104.458</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>29935.971364</v>
+        <v>29935.971364000001</v>
       </c>
       <c r="V15" s="1">
-        <v>8.315548</v>
+        <v>8.3155479999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>956.161000</v>
+        <v>956.16099999999994</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.087100</v>
+        <v>-89.087100000000007</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>29946.278263</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.318411</v>
+        <v>8.3184109999999993</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.333000</v>
+        <v>963.33299999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.134200</v>
+        <v>-77.134200000000007</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>29956.434312</v>
+        <v>29956.434312000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.321232</v>
+        <v>8.3212320000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.863000</v>
+        <v>967.86300000000006</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.816400</v>
+        <v>-74.816400000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>29966.913788</v>
+        <v>29966.913788000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.324143</v>
+        <v>8.3241429999999994</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.950000</v>
+        <v>974.95</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.343200</v>
+        <v>-79.343199999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>29977.341180</v>
+        <v>29977.341179999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.327039</v>
+        <v>8.3270389999999992</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.966000</v>
+        <v>982.96600000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.791100</v>
+        <v>-90.7911</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>29988.395023</v>
+        <v>29988.395023000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.330110</v>
+        <v>8.3301099999999995</v>
       </c>
       <c r="AV15" s="1">
-        <v>992.729000</v>
+        <v>992.72900000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.337000</v>
+        <v>-108.337</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>29999.484111</v>
+        <v>29999.484111000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.333190</v>
+        <v>8.3331900000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1000.900000</v>
+        <v>1000.9</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.842000</v>
+        <v>-123.842</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>30010.449137</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.336236</v>
+        <v>8.3362359999999995</v>
       </c>
       <c r="BF15" s="1">
-        <v>1039.250000</v>
+        <v>1039.25</v>
       </c>
       <c r="BG15" s="1">
-        <v>-195.260000</v>
+        <v>-195.26</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>30021.719761</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.339367</v>
+        <v>8.3393669999999993</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.250000</v>
+        <v>1105.25</v>
       </c>
       <c r="BL15" s="1">
-        <v>-311.325000</v>
+        <v>-311.32499999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>30032.826675</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.342452</v>
+        <v>8.3424519999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1212.400000</v>
+        <v>1212.4000000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-494.749000</v>
+        <v>-494.74900000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>30043.393413</v>
+        <v>30043.393413000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.345387</v>
+        <v>8.3453870000000006</v>
       </c>
       <c r="BU15" s="1">
-        <v>1332.940000</v>
+        <v>1332.94</v>
       </c>
       <c r="BV15" s="1">
-        <v>-696.455000</v>
+        <v>-696.45500000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>30054.944246</v>
+        <v>30054.944245999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.348596</v>
+        <v>8.3485960000000006</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1468.720000</v>
+        <v>1468.72</v>
       </c>
       <c r="CA15" s="1">
-        <v>-911.431000</v>
+        <v>-911.43100000000004</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>30067.817909</v>
+        <v>30067.817909000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.352172</v>
+        <v>8.3521719999999995</v>
       </c>
       <c r="CE15" s="1">
-        <v>1824.810000</v>
+        <v>1824.81</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1423.000000</v>
+        <v>-1423</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>29894.154682</v>
       </c>
       <c r="B16" s="1">
-        <v>8.303932</v>
+        <v>8.3039319999999996</v>
       </c>
       <c r="C16" s="1">
-        <v>901.623000</v>
+        <v>901.62300000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.559000</v>
+        <v>-202.559</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>29904.800780</v>
+        <v>29904.800780000001</v>
       </c>
       <c r="G16" s="1">
         <v>8.306889</v>
       </c>
       <c r="H16" s="1">
-        <v>919.518000</v>
+        <v>919.51800000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.532000</v>
+        <v>-171.53200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>29915.336302</v>
       </c>
       <c r="L16" s="1">
-        <v>8.309816</v>
+        <v>8.3098159999999996</v>
       </c>
       <c r="M16" s="1">
-        <v>942.996000</v>
+        <v>942.99599999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.807000</v>
+        <v>-120.807</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>29926.099854</v>
       </c>
       <c r="Q16" s="1">
-        <v>8.312806</v>
+        <v>8.3128060000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>949.699000</v>
+        <v>949.69899999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.425000</v>
+        <v>-104.425</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>29936.392962</v>
+        <v>29936.392962000002</v>
       </c>
       <c r="V16" s="1">
-        <v>8.315665</v>
+        <v>8.3156649999999992</v>
       </c>
       <c r="W16" s="1">
-        <v>956.240000</v>
+        <v>956.24</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.102600</v>
+        <v>-89.102599999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>29946.551557</v>
+        <v>29946.551556999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.318487</v>
+        <v>8.3184869999999993</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.214000</v>
+        <v>963.21400000000006</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.038000</v>
+        <v>-77.037999999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>29956.705128</v>
+        <v>29956.705128000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.321307</v>
+        <v>8.3213069999999991</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.837000</v>
+        <v>967.83699999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.809900</v>
+        <v>-74.809899999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>29967.263466</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.324240</v>
+        <v>8.3242399999999996</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.979000</v>
+        <v>974.97900000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.335500</v>
+        <v>-79.335499999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>29977.703297</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.327140</v>
+        <v>8.32714</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.993000</v>
+        <v>982.99300000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.782200</v>
+        <v>-90.782200000000003</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>29988.758130</v>
+        <v>29988.758129999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.330211</v>
+        <v>8.3302110000000003</v>
       </c>
       <c r="AV16" s="1">
-        <v>992.712000</v>
+        <v>992.71199999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.311000</v>
+        <v>-108.31100000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>30000.201790</v>
+        <v>30000.201789999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.333389</v>
+        <v>8.3333890000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1000.910000</v>
+        <v>1000.91</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.815000</v>
+        <v>-123.815</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>30011.169328</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.336436</v>
+        <v>8.3364360000000008</v>
       </c>
       <c r="BF16" s="1">
-        <v>1039.260000</v>
+        <v>1039.26</v>
       </c>
       <c r="BG16" s="1">
-        <v>-195.226000</v>
+        <v>-195.226</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>30022.097186</v>
+        <v>30022.097185999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.339471</v>
+        <v>8.3394709999999996</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.220000</v>
+        <v>1105.22</v>
       </c>
       <c r="BL16" s="1">
-        <v>-311.362000</v>
+        <v>-311.36200000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>30033.246755</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.342569</v>
+        <v>8.3425689999999992</v>
       </c>
       <c r="BP16" s="1">
-        <v>1212.400000</v>
+        <v>1212.4000000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-494.771000</v>
+        <v>-494.77100000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>30043.805096</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.345501</v>
+        <v>8.3455010000000005</v>
       </c>
       <c r="BU16" s="1">
-        <v>1332.860000</v>
+        <v>1332.86</v>
       </c>
       <c r="BV16" s="1">
-        <v>-696.313000</v>
+        <v>-696.31299999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>30055.670885</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.348797</v>
+        <v>8.3487969999999994</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1468.680000</v>
+        <v>1468.68</v>
       </c>
       <c r="CA16" s="1">
-        <v>-911.466000</v>
+        <v>-911.46600000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>30068.047060</v>
+        <v>30068.047060000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.352235</v>
+        <v>8.3522350000000003</v>
       </c>
       <c r="CE16" s="1">
-        <v>1824.940000</v>
+        <v>1824.94</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1423.190000</v>
+        <v>-1423.19</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>29894.501392</v>
+        <v>29894.501391999998</v>
       </c>
       <c r="B17" s="1">
-        <v>8.304028</v>
+        <v>8.3040280000000006</v>
       </c>
       <c r="C17" s="1">
-        <v>901.547000</v>
+        <v>901.54700000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.600000</v>
+        <v>-202.6</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>29905.157932</v>
+        <v>29905.157931999998</v>
       </c>
       <c r="G17" s="1">
-        <v>8.306988</v>
+        <v>8.3069880000000005</v>
       </c>
       <c r="H17" s="1">
-        <v>919.649000</v>
+        <v>919.649</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.766000</v>
+        <v>-171.76599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>29915.758398</v>
+        <v>29915.758398000002</v>
       </c>
       <c r="L17" s="1">
-        <v>8.309933</v>
+        <v>8.3099329999999991</v>
       </c>
       <c r="M17" s="1">
-        <v>943.021000</v>
+        <v>943.02099999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.063000</v>
+        <v>-121.063</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>29926.517121</v>
+        <v>29926.517121000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.312921</v>
+        <v>8.3129209999999993</v>
       </c>
       <c r="R17" s="1">
-        <v>949.688000</v>
+        <v>949.68799999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.417000</v>
+        <v>-104.417</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>29936.678658</v>
+        <v>29936.678658000001</v>
       </c>
       <c r="V17" s="1">
-        <v>8.315744</v>
+        <v>8.3157440000000005</v>
       </c>
       <c r="W17" s="1">
-        <v>956.235000</v>
+        <v>956.23500000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.052500</v>
+        <v>-89.052499999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>29946.899716</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.318583</v>
+        <v>8.3185830000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.218000</v>
+        <v>963.21799999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.130200</v>
+        <v>-77.130200000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>29957.048856</v>
+        <v>29957.048856000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.321402</v>
+        <v>8.3214020000000009</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.831000</v>
+        <v>967.83100000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.797800</v>
+        <v>-74.797799999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>29967.610665</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.324336</v>
+        <v>8.3243360000000006</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.962000</v>
+        <v>974.96199999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.319900</v>
+        <v>-79.319900000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>29978.061905</v>
+        <v>29978.061904999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>8.327239</v>
+        <v>8.3272390000000005</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.957000</v>
+        <v>982.95699999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.764400</v>
+        <v>-90.764399999999995</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>29989.487741</v>
+        <v>29989.487741000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.330413</v>
+        <v>8.3304130000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>992.712000</v>
+        <v>992.71199999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.332000</v>
+        <v>-108.33199999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>30000.560398</v>
+        <v>30000.560398000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.333489</v>
+        <v>8.3334890000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1000.920000</v>
+        <v>1000.92</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.839000</v>
+        <v>-123.839</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>30011.582497</v>
+        <v>30011.582496999999</v>
       </c>
       <c r="BE17" s="1">
         <v>8.336551</v>
       </c>
       <c r="BF17" s="1">
-        <v>1039.230000</v>
+        <v>1039.23</v>
       </c>
       <c r="BG17" s="1">
-        <v>-195.250000</v>
+        <v>-195.25</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>30022.472690</v>
+        <v>30022.472689999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.339576</v>
+        <v>8.3395759999999992</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.230000</v>
+        <v>1105.23</v>
       </c>
       <c r="BL17" s="1">
-        <v>-311.351000</v>
+        <v>-311.351</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>30033.952563</v>
+        <v>30033.952562999999</v>
       </c>
       <c r="BO17" s="1">
         <v>8.342765</v>
       </c>
       <c r="BP17" s="1">
-        <v>1212.430000</v>
+        <v>1212.43</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-494.799000</v>
+        <v>-494.79899999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>30044.625972</v>
+        <v>30044.625972000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.345729</v>
+        <v>8.3457290000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>1332.960000</v>
+        <v>1332.96</v>
       </c>
       <c r="BV17" s="1">
-        <v>-696.172000</v>
+        <v>-696.17200000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>30055.784997</v>
+        <v>30055.784996999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.348829</v>
+        <v>8.3488290000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1468.750000</v>
+        <v>1468.75</v>
       </c>
       <c r="CA17" s="1">
-        <v>-911.471000</v>
+        <v>-911.471</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>30068.566902</v>
+        <v>30068.566901999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.352380</v>
+        <v>8.3523800000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1825.970000</v>
+        <v>1825.97</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1422.690000</v>
+        <v>-1422.69</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>29894.844587</v>
       </c>
       <c r="B18" s="1">
-        <v>8.304123</v>
+        <v>8.3041230000000006</v>
       </c>
       <c r="C18" s="1">
-        <v>901.549000</v>
+        <v>901.54899999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.599000</v>
+        <v>-202.59899999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>29905.570608</v>
+        <v>29905.570608000002</v>
       </c>
       <c r="G18" s="1">
-        <v>8.307103</v>
+        <v>8.3071029999999997</v>
       </c>
       <c r="H18" s="1">
-        <v>919.658000</v>
+        <v>919.65800000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.014000</v>
+        <v>-171.01400000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>29916.038168</v>
+        <v>29916.038167999999</v>
       </c>
       <c r="L18" s="1">
-        <v>8.310011</v>
+        <v>8.3100109999999994</v>
       </c>
       <c r="M18" s="1">
-        <v>942.766000</v>
+        <v>942.76599999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.118000</v>
+        <v>-121.11799999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>29926.802847</v>
+        <v>29926.802846999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.313001</v>
+        <v>8.3130009999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>949.719000</v>
+        <v>949.71900000000005</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.394000</v>
+        <v>-104.39400000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>29937.018419</v>
       </c>
       <c r="V18" s="1">
-        <v>8.315838</v>
+        <v>8.3158379999999994</v>
       </c>
       <c r="W18" s="1">
-        <v>956.140000</v>
+        <v>956.14</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.039600</v>
+        <v>-89.039599999999993</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>29947.251380</v>
+        <v>29947.251380000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.318681</v>
+        <v>8.3186809999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.271000</v>
+        <v>963.27099999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.114900</v>
+        <v>-77.114900000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>29957.392114</v>
+        <v>29957.392113999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.321498</v>
+        <v>8.3214980000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.811000</v>
+        <v>967.81100000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.754900</v>
+        <v>-74.754900000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>29968.308537</v>
+        <v>29968.308537000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.324530</v>
+        <v>8.3245299999999993</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.967000</v>
+        <v>974.96699999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.357000</v>
+        <v>-79.356999999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>29978.788546</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.327441</v>
+        <v>8.3274410000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.967000</v>
+        <v>982.96699999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.768900</v>
+        <v>-90.768900000000002</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>29989.879585</v>
+        <v>29989.879584999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.330522</v>
+        <v>8.3305220000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>992.726000</v>
+        <v>992.726</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.335000</v>
+        <v>-108.33499999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>30000.919997</v>
+        <v>30000.919997000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.333589</v>
+        <v>8.3335889999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1000.920000</v>
+        <v>1000.92</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.863000</v>
+        <v>-123.863</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>30012.196089</v>
+        <v>30012.196089000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.336721</v>
+        <v>8.3367210000000007</v>
       </c>
       <c r="BF18" s="1">
-        <v>1039.240000</v>
+        <v>1039.24</v>
       </c>
       <c r="BG18" s="1">
-        <v>-195.238000</v>
+        <v>-195.238</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>30023.170528</v>
+        <v>30023.170527999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.339770</v>
+        <v>8.3397699999999997</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.200000</v>
+        <v>1105.2</v>
       </c>
       <c r="BL18" s="1">
-        <v>-311.359000</v>
+        <v>-311.35899999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>30034.063169</v>
+        <v>30034.063169000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.342795</v>
+        <v>8.3427950000000006</v>
       </c>
       <c r="BP18" s="1">
-        <v>1212.380000</v>
+        <v>1212.3800000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-494.745000</v>
+        <v>-494.745</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>30045.102131</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.345862</v>
+        <v>8.3458620000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>1333.130000</v>
+        <v>1333.13</v>
       </c>
       <c r="BV18" s="1">
-        <v>-696.120000</v>
+        <v>-696.12</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>30056.225412</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.348952</v>
+        <v>8.3489520000000006</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1468.770000</v>
+        <v>1468.77</v>
       </c>
       <c r="CA18" s="1">
-        <v>-911.513000</v>
+        <v>-911.51300000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>30069.084195</v>
+        <v>30069.084194999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.352523</v>
+        <v>8.3525229999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>1825.560000</v>
+        <v>1825.56</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1421.220000</v>
+        <v>-1421.22</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>29895.288539</v>
+        <v>29895.288539000001</v>
       </c>
       <c r="B19" s="1">
-        <v>8.304247</v>
+        <v>8.3042470000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>901.702000</v>
+        <v>901.702</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.609000</v>
+        <v>-202.60900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>29905.868171</v>
+        <v>29905.868170999998</v>
       </c>
       <c r="G19" s="1">
-        <v>8.307186</v>
+        <v>8.3071859999999997</v>
       </c>
       <c r="H19" s="1">
-        <v>919.546000</v>
+        <v>919.54600000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.065000</v>
+        <v>-171.065</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>29916.384190</v>
+        <v>29916.384190000001</v>
       </c>
       <c r="L19" s="1">
-        <v>8.310107</v>
+        <v>8.3101070000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>943.024000</v>
+        <v>943.024</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.014000</v>
+        <v>-121.014</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>29927.155006</v>
+        <v>29927.155006000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.313099</v>
+        <v>8.3130989999999994</v>
       </c>
       <c r="R19" s="1">
-        <v>949.727000</v>
+        <v>949.72699999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.433000</v>
+        <v>-104.43300000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>29937.362675</v>
       </c>
       <c r="V19" s="1">
-        <v>8.315934</v>
+        <v>8.3159340000000004</v>
       </c>
       <c r="W19" s="1">
-        <v>956.127000</v>
+        <v>956.12699999999995</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.994900</v>
+        <v>-88.994900000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>29947.946275</v>
+        <v>29947.946274999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.318874</v>
+        <v>8.3188739999999992</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.261000</v>
+        <v>963.26099999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.144500</v>
+        <v>-77.144499999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>29958.078055</v>
+        <v>29958.078055000002</v>
       </c>
       <c r="AF19" s="1">
         <v>8.321688</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.815000</v>
+        <v>967.81500000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.794100</v>
+        <v>-74.7941</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>29968.657224</v>
+        <v>29968.657223999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.324627</v>
+        <v>8.3246269999999996</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.981000</v>
+        <v>974.98099999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.340200</v>
+        <v>-79.340199999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>29979.159018</v>
+        <v>29979.159017999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.327544</v>
+        <v>8.3275439999999996</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.979000</v>
+        <v>982.97900000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.775300</v>
+        <v>-90.775300000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>29990.242123</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.330623</v>
+        <v>8.3306229999999992</v>
       </c>
       <c r="AV19" s="1">
-        <v>992.715000</v>
+        <v>992.71500000000003</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.318000</v>
+        <v>-108.318</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>30001.585662</v>
+        <v>30001.585662000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>8.333774</v>
       </c>
       <c r="BA19" s="1">
-        <v>1000.930000</v>
+        <v>1000.93</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.854000</v>
+        <v>-123.854</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>30012.641454</v>
+        <v>30012.641454000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.336845</v>
+        <v>8.3368450000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1039.250000</v>
+        <v>1039.25</v>
       </c>
       <c r="BG19" s="1">
-        <v>-195.250000</v>
+        <v>-195.25</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>30023.597583</v>
+        <v>30023.597582999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.339888</v>
+        <v>8.3398880000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.240000</v>
+        <v>1105.24</v>
       </c>
       <c r="BL19" s="1">
-        <v>-311.336000</v>
+        <v>-311.33600000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>30034.487281</v>
+        <v>30034.487281000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.342913</v>
+        <v>8.3429129999999994</v>
       </c>
       <c r="BP19" s="1">
-        <v>1212.370000</v>
+        <v>1212.3699999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-494.779000</v>
+        <v>-494.779</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>30045.534642</v>
+        <v>30045.534641999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>8.345982</v>
+        <v>8.3459819999999993</v>
       </c>
       <c r="BU19" s="1">
-        <v>1333.110000</v>
+        <v>1333.11</v>
       </c>
       <c r="BV19" s="1">
-        <v>-696.141000</v>
+        <v>-696.14099999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>30056.671571</v>
+        <v>30056.671570999999</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.349075</v>
+        <v>8.3490749999999991</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1468.700000</v>
+        <v>1468.7</v>
       </c>
       <c r="CA19" s="1">
-        <v>-911.418000</v>
+        <v>-911.41800000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>30069.601027</v>
+        <v>30069.601027000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.352667</v>
+        <v>8.3526670000000003</v>
       </c>
       <c r="CE19" s="1">
-        <v>1824.590000</v>
+        <v>1824.59</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1422.020000</v>
+        <v>-1422.02</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>29895.539493</v>
       </c>
       <c r="B20" s="1">
-        <v>8.304317</v>
+        <v>8.3043169999999993</v>
       </c>
       <c r="C20" s="1">
-        <v>901.559000</v>
+        <v>901.55899999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.469000</v>
+        <v>-202.46899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>29906.216362</v>
+        <v>29906.216361999999</v>
       </c>
       <c r="G20" s="1">
-        <v>8.307282</v>
+        <v>8.3072820000000007</v>
       </c>
       <c r="H20" s="1">
-        <v>919.671000</v>
+        <v>919.67100000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.172000</v>
+        <v>-171.172</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>29916.731053</v>
       </c>
       <c r="L20" s="1">
-        <v>8.310203</v>
+        <v>8.3102029999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>943.130000</v>
+        <v>943.13</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.854000</v>
+        <v>-120.854</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>29927.505648</v>
+        <v>29927.505647999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.313196</v>
+        <v>8.3131959999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>949.696000</v>
+        <v>949.69600000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.447000</v>
+        <v>-104.447</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>29938.048846</v>
+        <v>29938.048846000002</v>
       </c>
       <c r="V20" s="1">
-        <v>8.316125</v>
+        <v>8.3161249999999995</v>
       </c>
       <c r="W20" s="1">
-        <v>956.165000</v>
+        <v>956.16499999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.062800</v>
+        <v>-89.062799999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>29948.297443</v>
+        <v>29948.297442999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.318972</v>
+        <v>8.3189720000000005</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.335000</v>
+        <v>963.33500000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.231600</v>
+        <v>-77.2316</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>29958.421322</v>
+        <v>29958.421321999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.321784</v>
+        <v>8.3217839999999992</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.835000</v>
+        <v>967.83500000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.780500</v>
+        <v>-74.780500000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>29969.003466</v>
+        <v>29969.003465999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.324723</v>
+        <v>8.3247230000000005</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.982000</v>
+        <v>974.98199999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.357000</v>
+        <v>-79.356999999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>29979.852425</v>
+        <v>29979.852425000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.327737</v>
+        <v>8.3277370000000008</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.974000</v>
+        <v>982.97400000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.768500</v>
+        <v>-90.768500000000003</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>29990.917706</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.330810</v>
+        <v>8.3308099999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>992.724000</v>
+        <v>992.72400000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.292000</v>
+        <v>-108.292</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>30001.993037</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.333887</v>
+        <v>8.3338870000000007</v>
       </c>
       <c r="BA20" s="1">
-        <v>1000.930000</v>
+        <v>1000.93</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.853000</v>
+        <v>-123.85299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>30013.000557</v>
+        <v>30013.000556999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.336945</v>
+        <v>8.3369450000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1039.250000</v>
+        <v>1039.25</v>
       </c>
       <c r="BG20" s="1">
-        <v>-195.271000</v>
+        <v>-195.27099999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>30023.972558</v>
+        <v>30023.972558000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.339992</v>
+        <v>8.3399920000000005</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.210000</v>
+        <v>1105.21</v>
       </c>
       <c r="BL20" s="1">
-        <v>-311.325000</v>
+        <v>-311.32499999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>30034.883585</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.343023</v>
+        <v>8.3430230000000005</v>
       </c>
       <c r="BP20" s="1">
-        <v>1212.420000</v>
+        <v>1212.42</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-494.789000</v>
+        <v>-494.78899999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>30045.969665</v>
+        <v>30045.969665000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.346103</v>
+        <v>8.3461029999999994</v>
       </c>
       <c r="BU20" s="1">
-        <v>1333.180000</v>
+        <v>1333.18</v>
       </c>
       <c r="BV20" s="1">
-        <v>-696.096000</v>
+        <v>-696.096</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>30057.112789</v>
+        <v>30057.112788999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.349198</v>
+        <v>8.3491979999999995</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1468.750000</v>
+        <v>1468.75</v>
       </c>
       <c r="CA20" s="1">
-        <v>-911.426000</v>
+        <v>-911.42600000000004</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>30070.119842</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.352811</v>
+        <v>8.3528110000000009</v>
       </c>
       <c r="CE20" s="1">
-        <v>1824.410000</v>
+        <v>1824.41</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1421.700000</v>
+        <v>-1421.7</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>29895.881224</v>
+        <v>29895.881224000001</v>
       </c>
       <c r="B21" s="1">
         <v>8.304411</v>
       </c>
       <c r="C21" s="1">
-        <v>901.517000</v>
+        <v>901.51700000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.565000</v>
+        <v>-202.565</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>29906.556156</v>
+        <v>29906.556155999999</v>
       </c>
       <c r="G21" s="1">
-        <v>8.307377</v>
+        <v>8.3073770000000007</v>
       </c>
       <c r="H21" s="1">
-        <v>919.747000</v>
+        <v>919.74699999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>-170.855000</v>
+        <v>-170.85499999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>29917.425982</v>
+        <v>29917.425982000001</v>
       </c>
       <c r="L21" s="1">
-        <v>8.310396</v>
+        <v>8.3103960000000008</v>
       </c>
       <c r="M21" s="1">
-        <v>942.942000</v>
+        <v>942.94200000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.074000</v>
+        <v>-121.074</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>29928.204511</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.313390</v>
+        <v>8.3133900000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>949.692000</v>
+        <v>949.69200000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.454000</v>
+        <v>-104.45399999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>29938.393328</v>
+        <v>29938.393327999998</v>
       </c>
       <c r="V21" s="1">
-        <v>8.316220</v>
+        <v>8.3162199999999995</v>
       </c>
       <c r="W21" s="1">
-        <v>956.139000</v>
+        <v>956.13900000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.081000</v>
+        <v>-89.081000000000003</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>29948.648114</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.319069</v>
+        <v>8.3190690000000007</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.217000</v>
+        <v>963.21699999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.148800</v>
+        <v>-77.148799999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>29958.767494</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.321880</v>
+        <v>8.3218800000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.863000</v>
+        <v>967.86300000000006</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.796100</v>
+        <v>-74.796099999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>29969.662678</v>
+        <v>29969.662678000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.324906</v>
+        <v>8.3249060000000004</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.979000</v>
+        <v>974.97900000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.346500</v>
+        <v>-79.346500000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>29980.246745</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.327846</v>
+        <v>8.3278459999999992</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.959000</v>
+        <v>982.95899999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.763600</v>
+        <v>-90.763599999999997</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>29991.372010</v>
+        <v>29991.372009999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.330937</v>
+        <v>8.3309370000000005</v>
       </c>
       <c r="AV21" s="1">
-        <v>992.724000</v>
+        <v>992.72400000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.325000</v>
+        <v>-108.325</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>30002.382203</v>
+        <v>30002.382203000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.333995</v>
+        <v>8.3339949999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1000.900000</v>
+        <v>1000.9</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.841000</v>
+        <v>-123.84099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>30013.364655</v>
+        <v>30013.364655000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.337046</v>
+        <v>8.3370460000000008</v>
       </c>
       <c r="BF21" s="1">
-        <v>1039.250000</v>
+        <v>1039.25</v>
       </c>
       <c r="BG21" s="1">
-        <v>-195.259000</v>
+        <v>-195.25899999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>30024.346542</v>
+        <v>30024.346541999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.340096</v>
+        <v>8.3400960000000008</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.250000</v>
+        <v>1105.25</v>
       </c>
       <c r="BL21" s="1">
-        <v>-311.360000</v>
+        <v>-311.36</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>30035.315567</v>
+        <v>30035.315567000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.343143</v>
+        <v>8.3431429999999995</v>
       </c>
       <c r="BP21" s="1">
-        <v>1212.440000</v>
+        <v>1212.44</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-494.783000</v>
+        <v>-494.78300000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>30046.377345</v>
+        <v>30046.377345000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.346216</v>
+        <v>8.3462160000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1333.280000</v>
+        <v>1333.28</v>
       </c>
       <c r="BV21" s="1">
-        <v>-696.048000</v>
+        <v>-696.048</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>30057.518482</v>
+        <v>30057.518481999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.349311</v>
+        <v>8.3493110000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1468.800000</v>
+        <v>1468.8</v>
       </c>
       <c r="CA21" s="1">
-        <v>-911.412000</v>
+        <v>-911.41200000000003</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>30070.672385</v>
+        <v>30070.672385000002</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.352965</v>
+        <v>8.3529649999999993</v>
       </c>
       <c r="CE21" s="1">
-        <v>1825.090000</v>
+        <v>1825.09</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1421.360000</v>
+        <v>-1421.36</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>29896.564711</v>
+        <v>29896.564710999999</v>
       </c>
       <c r="B22" s="1">
-        <v>8.304601</v>
+        <v>8.3046009999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>901.719000</v>
+        <v>901.71900000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.634000</v>
+        <v>-202.63399999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>29907.246553</v>
+        <v>29907.246553000001</v>
       </c>
       <c r="G22" s="1">
-        <v>8.307568</v>
+        <v>8.3075679999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>919.631000</v>
+        <v>919.63099999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.237000</v>
+        <v>-171.23699999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>29917.772155</v>
+        <v>29917.772154999999</v>
       </c>
       <c r="L22" s="1">
         <v>8.310492</v>
       </c>
       <c r="M22" s="1">
-        <v>943.067000</v>
+        <v>943.06700000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.024000</v>
+        <v>-121.024</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>29928.607261</v>
+        <v>29928.607261000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.313502</v>
+        <v>8.3135019999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>949.707000</v>
+        <v>949.70699999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.424000</v>
+        <v>-104.42400000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>29938.735568</v>
       </c>
       <c r="V22" s="1">
-        <v>8.316315</v>
+        <v>8.3163149999999995</v>
       </c>
       <c r="W22" s="1">
-        <v>956.200000</v>
+        <v>956.2</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.107100</v>
+        <v>-89.107100000000003</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>29949.305841</v>
+        <v>29949.305841000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.319252</v>
+        <v>8.3192520000000005</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.220000</v>
+        <v>963.22</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.146100</v>
+        <v>-77.146100000000004</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>29959.431140</v>
+        <v>29959.431140000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.322064</v>
+        <v>8.3220639999999992</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.884000</v>
+        <v>967.88400000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.768400</v>
+        <v>-74.7684</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>29970.054454</v>
+        <v>29970.054454000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.325015</v>
+        <v>8.3250150000000005</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.983000</v>
+        <v>974.98299999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.355800</v>
+        <v>-79.355800000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>29980.607832</v>
+        <v>29980.607832000002</v>
       </c>
       <c r="AP22" s="1">
         <v>8.327947</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.968000</v>
+        <v>982.96799999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.797900</v>
+        <v>-90.797899999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>29991.737562</v>
+        <v>29991.737561999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.331038</v>
+        <v>8.3310379999999995</v>
       </c>
       <c r="AV22" s="1">
-        <v>992.729000</v>
+        <v>992.72900000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.302000</v>
+        <v>-108.30200000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>30002.739323</v>
+        <v>30002.739323000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.334094</v>
+        <v>8.3340940000000003</v>
       </c>
       <c r="BA22" s="1">
-        <v>1000.900000</v>
+        <v>1000.9</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.846000</v>
+        <v>-123.846</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>30013.789196</v>
+        <v>30013.789196000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.337164</v>
+        <v>8.3371639999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1039.240000</v>
+        <v>1039.24</v>
       </c>
       <c r="BG22" s="1">
-        <v>-195.275000</v>
+        <v>-195.27500000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>30024.782030</v>
+        <v>30024.782029999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.340217</v>
+        <v>8.3402170000000009</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.240000</v>
+        <v>1105.24</v>
       </c>
       <c r="BL22" s="1">
-        <v>-311.356000</v>
+        <v>-311.35599999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>30035.703968</v>
+        <v>30035.703968000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.343251</v>
+        <v>8.3432510000000004</v>
       </c>
       <c r="BP22" s="1">
-        <v>1212.420000</v>
+        <v>1212.42</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-494.782000</v>
+        <v>-494.78199999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>30046.804401</v>
+        <v>30046.804401000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.346335</v>
+        <v>8.3463349999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1333.370000</v>
+        <v>1333.37</v>
       </c>
       <c r="BV22" s="1">
-        <v>-696.187000</v>
+        <v>-696.18700000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>30057.963922</v>
+        <v>30057.963921999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.349434</v>
+        <v>8.3494340000000005</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1468.730000</v>
+        <v>1468.73</v>
       </c>
       <c r="CA22" s="1">
-        <v>-911.485000</v>
+        <v>-911.48500000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>30071.200625</v>
+        <v>30071.200625000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.353111</v>
+        <v>8.3531110000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>1824.010000</v>
+        <v>1824.01</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1422.250000</v>
+        <v>-1422.25</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>29896.911943</v>
+        <v>29896.911942999999</v>
       </c>
       <c r="B23" s="1">
-        <v>8.304698</v>
+        <v>8.3046980000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>901.551000</v>
+        <v>901.55100000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.610000</v>
+        <v>-202.61</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>29907.591305</v>
+        <v>29907.591305000002</v>
       </c>
       <c r="G23" s="1">
-        <v>8.307664</v>
+        <v>8.3076640000000008</v>
       </c>
       <c r="H23" s="1">
-        <v>919.704000</v>
+        <v>919.70399999999995</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.560000</v>
+        <v>-171.56</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>29918.118395</v>
+        <v>29918.118395000001</v>
       </c>
       <c r="L23" s="1">
-        <v>8.310588</v>
+        <v>8.3105879999999992</v>
       </c>
       <c r="M23" s="1">
-        <v>943.119000</v>
+        <v>943.11900000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.031000</v>
+        <v>-121.03100000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>29928.912302</v>
+        <v>29928.912302000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.313587</v>
+        <v>8.3135870000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>949.736000</v>
+        <v>949.73599999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.436000</v>
+        <v>-104.43600000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>29939.388799</v>
@@ -5938,632 +6354,632 @@
         <v>8.316497</v>
       </c>
       <c r="W23" s="1">
-        <v>956.232000</v>
+        <v>956.23199999999997</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.079100</v>
+        <v>-89.079099999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>29949.691236</v>
+        <v>29949.691235999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.319359</v>
+        <v>8.3193590000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.173000</v>
+        <v>963.173</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.966500</v>
+        <v>-76.966499999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>29959.797684</v>
+        <v>29959.797684000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.322166</v>
+        <v>8.3221659999999993</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.846000</v>
+        <v>967.846</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.778500</v>
+        <v>-74.778499999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>29970.399707</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.325111</v>
+        <v>8.3251109999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.959000</v>
+        <v>974.95899999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.359500</v>
+        <v>-79.359499999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>29980.969416</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.328047</v>
+        <v>8.3280469999999998</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.984000</v>
+        <v>982.98400000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.783300</v>
+        <v>-90.783299999999997</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>29992.101161</v>
+        <v>29992.101160999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.331139</v>
+        <v>8.3311390000000003</v>
       </c>
       <c r="AV23" s="1">
-        <v>992.714000</v>
+        <v>992.71400000000006</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.334000</v>
+        <v>-108.334</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>30003.153482</v>
+        <v>30003.153482000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.334209</v>
+        <v>8.3342089999999995</v>
       </c>
       <c r="BA23" s="1">
-        <v>1000.920000</v>
+        <v>1000.92</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.835000</v>
+        <v>-123.83499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>30014.082366</v>
+        <v>30014.082365999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.337245</v>
+        <v>8.3372449999999994</v>
       </c>
       <c r="BF23" s="1">
-        <v>1039.230000</v>
+        <v>1039.23</v>
       </c>
       <c r="BG23" s="1">
-        <v>-195.263000</v>
+        <v>-195.26300000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>30025.128237</v>
+        <v>30025.128237000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>8.340313</v>
+        <v>8.3403130000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.220000</v>
+        <v>1105.22</v>
       </c>
       <c r="BL23" s="1">
-        <v>-311.330000</v>
+        <v>-311.33</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>30036.125040</v>
+        <v>30036.125039999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.343368</v>
+        <v>8.3433679999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1212.420000</v>
+        <v>1212.42</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-494.807000</v>
+        <v>-494.80700000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>30047.212144</v>
+        <v>30047.212144000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.346448</v>
+        <v>8.3464480000000005</v>
       </c>
       <c r="BU23" s="1">
-        <v>1333.380000</v>
+        <v>1333.38</v>
       </c>
       <c r="BV23" s="1">
-        <v>-696.167000</v>
+        <v>-696.16700000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>30058.396401</v>
+        <v>30058.396401000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.349555</v>
+        <v>8.3495550000000005</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1468.770000</v>
+        <v>1468.77</v>
       </c>
       <c r="CA23" s="1">
-        <v>-911.523000</v>
+        <v>-911.52300000000002</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>30071.717983</v>
+        <v>30071.717982999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.353255</v>
+        <v>8.3532550000000008</v>
       </c>
       <c r="CE23" s="1">
-        <v>1825.380000</v>
+        <v>1825.38</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1422.930000</v>
+        <v>-1422.93</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>29897.254151</v>
+        <v>29897.254151000001</v>
       </c>
       <c r="B24" s="1">
-        <v>8.304793</v>
+        <v>8.3047930000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>901.637000</v>
+        <v>901.63699999999994</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.538000</v>
+        <v>-202.53800000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>29907.936488</v>
+        <v>29907.936487999999</v>
       </c>
       <c r="G24" s="1">
-        <v>8.307760</v>
+        <v>8.30776</v>
       </c>
       <c r="H24" s="1">
-        <v>919.347000</v>
+        <v>919.34699999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.198000</v>
+        <v>-171.19800000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>29918.771626</v>
+        <v>29918.771626000002</v>
       </c>
       <c r="L24" s="1">
-        <v>8.310770</v>
+        <v>8.3107699999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>943.022000</v>
+        <v>943.02200000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.949000</v>
+        <v>-120.949</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>29929.607726</v>
+        <v>29929.607725999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.313780</v>
+        <v>8.3137799999999995</v>
       </c>
       <c r="R24" s="1">
-        <v>949.741000</v>
+        <v>949.74099999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.439000</v>
+        <v>-104.43899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>29939.765373</v>
+        <v>29939.765372999998</v>
       </c>
       <c r="V24" s="1">
-        <v>8.316601</v>
+        <v>8.3166010000000004</v>
       </c>
       <c r="W24" s="1">
-        <v>956.245000</v>
+        <v>956.245</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.090800</v>
+        <v>-89.090800000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>29950.043393</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.319456</v>
+        <v>8.3194560000000006</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.142000</v>
+        <v>963.14200000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.198400</v>
+        <v>-77.198400000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>29960.142899</v>
+        <v>29960.142898999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.322262</v>
+        <v>8.3222620000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.851000</v>
+        <v>967.851</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.811600</v>
+        <v>-74.811599999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>29970.749876</v>
+        <v>29970.749876000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.325208</v>
+        <v>8.3252079999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.965000</v>
+        <v>974.96500000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.331300</v>
+        <v>-79.331299999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>29981.393033</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.328165</v>
+        <v>8.3281650000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.965000</v>
+        <v>982.96500000000003</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.774600</v>
+        <v>-90.774600000000007</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>29992.522761</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.331256</v>
+        <v>8.3312559999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>992.719000</v>
+        <v>992.71900000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.314000</v>
+        <v>-108.31399999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>30003.459022</v>
+        <v>30003.459021999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.334294</v>
+        <v>8.3342939999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1000.920000</v>
+        <v>1000.92</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.841000</v>
+        <v>-123.84099999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>30014.445409</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.337346</v>
+        <v>8.3373460000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1039.230000</v>
+        <v>1039.23</v>
       </c>
       <c r="BG24" s="1">
-        <v>-195.260000</v>
+        <v>-195.26</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>30025.502748</v>
+        <v>30025.502747999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.340417</v>
+        <v>8.3404170000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.190000</v>
+        <v>1105.19</v>
       </c>
       <c r="BL24" s="1">
-        <v>-311.379000</v>
+        <v>-311.37900000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>30036.523397</v>
+        <v>30036.523397000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.343479</v>
+        <v>8.3434790000000003</v>
       </c>
       <c r="BP24" s="1">
-        <v>1212.450000</v>
+        <v>1212.45</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-494.795000</v>
+        <v>-494.79500000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>30047.647634</v>
+        <v>30047.647634000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.346569</v>
+        <v>8.3465690000000006</v>
       </c>
       <c r="BU24" s="1">
-        <v>1333.500000</v>
+        <v>1333.5</v>
       </c>
       <c r="BV24" s="1">
-        <v>-696.225000</v>
+        <v>-696.22500000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>30058.820018</v>
+        <v>30058.820017999999</v>
       </c>
       <c r="BY24" s="1">
         <v>8.349672</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1468.740000</v>
+        <v>1468.74</v>
       </c>
       <c r="CA24" s="1">
-        <v>-911.476000</v>
+        <v>-911.476</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>30072.226849</v>
+        <v>30072.226848999999</v>
       </c>
       <c r="CD24" s="1">
         <v>8.353396</v>
       </c>
       <c r="CE24" s="1">
-        <v>1825.820000</v>
+        <v>1825.82</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1422.350000</v>
+        <v>-1422.35</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>29897.908405</v>
+        <v>29897.908404999998</v>
       </c>
       <c r="B25" s="1">
-        <v>8.304975</v>
+        <v>8.3049750000000007</v>
       </c>
       <c r="C25" s="1">
-        <v>901.484000</v>
+        <v>901.48400000000004</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.546000</v>
+        <v>-202.54599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>29908.593225</v>
+        <v>29908.593225000001</v>
       </c>
       <c r="G25" s="1">
-        <v>8.307943</v>
+        <v>8.3079429999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>919.736000</v>
+        <v>919.73599999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.220000</v>
+        <v>-171.22</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>29919.154009</v>
+        <v>29919.154009000002</v>
       </c>
       <c r="L25" s="1">
-        <v>8.310876</v>
+        <v>8.3108760000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>943.031000</v>
+        <v>943.03099999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.193000</v>
+        <v>-121.193</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>29929.957371</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.313877</v>
+        <v>8.3138769999999997</v>
       </c>
       <c r="R25" s="1">
-        <v>949.697000</v>
+        <v>949.697</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.460000</v>
+        <v>-104.46</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>29940.109027</v>
+        <v>29940.109026999999</v>
       </c>
       <c r="V25" s="1">
-        <v>8.316697</v>
+        <v>8.3166969999999996</v>
       </c>
       <c r="W25" s="1">
-        <v>956.125000</v>
+        <v>956.125</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.068200</v>
+        <v>-89.068200000000004</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>29950.391088</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.319553</v>
+        <v>8.3195530000000009</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.086000</v>
+        <v>963.08600000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.226800</v>
+        <v>-77.226799999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>29960.493074</v>
+        <v>29960.493074000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.322359</v>
+        <v>8.3223590000000005</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.845000</v>
+        <v>967.84500000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.766500</v>
+        <v>-74.766499999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>29971.170454</v>
+        <v>29971.170453999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.325325</v>
+        <v>8.3253249999999994</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.961000</v>
+        <v>974.96100000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.340200</v>
+        <v>-79.340199999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>29981.690102</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.328247</v>
+        <v>8.3282469999999993</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.968000</v>
+        <v>982.96799999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.752200</v>
+        <v>-90.752200000000002</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>29992.832765</v>
+        <v>29992.832764999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>8.331342</v>
+        <v>8.3313419999999994</v>
       </c>
       <c r="AV25" s="1">
-        <v>992.700000</v>
+        <v>992.7</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.317000</v>
+        <v>-108.31699999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>30003.816169</v>
+        <v>30003.816169000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.334393</v>
+        <v>8.3343930000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1000.920000</v>
+        <v>1000.92</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.838000</v>
+        <v>-123.83799999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>30014.808972</v>
+        <v>30014.808971999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.337447</v>
+        <v>8.3374469999999992</v>
       </c>
       <c r="BF25" s="1">
-        <v>1039.230000</v>
+        <v>1039.23</v>
       </c>
       <c r="BG25" s="1">
-        <v>-195.249000</v>
+        <v>-195.249</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>30025.877729</v>
@@ -6572,300 +6988,300 @@
         <v>8.340522</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.200000</v>
+        <v>1105.2</v>
       </c>
       <c r="BL25" s="1">
-        <v>-311.339000</v>
+        <v>-311.339</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>30036.942942</v>
+        <v>30036.942942000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.343595</v>
+        <v>8.3435950000000005</v>
       </c>
       <c r="BP25" s="1">
-        <v>1212.390000</v>
+        <v>1212.3900000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-494.774000</v>
+        <v>-494.774</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>30048.074664</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.346687</v>
+        <v>8.3466869999999993</v>
       </c>
       <c r="BU25" s="1">
-        <v>1333.520000</v>
+        <v>1333.52</v>
       </c>
       <c r="BV25" s="1">
-        <v>-696.347000</v>
+        <v>-696.34699999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>30059.240098</v>
+        <v>30059.240097999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.349789</v>
+        <v>8.3497889999999995</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1468.830000</v>
+        <v>1468.83</v>
       </c>
       <c r="CA25" s="1">
-        <v>-911.585000</v>
+        <v>-911.58500000000004</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>30072.756080</v>
+        <v>30072.756079999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.353543</v>
+        <v>8.3535430000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1826.110000</v>
+        <v>1826.11</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1422.380000</v>
+        <v>-1422.38</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>29898.278886</v>
       </c>
       <c r="B26" s="1">
-        <v>8.305077</v>
+        <v>8.3050770000000007</v>
       </c>
       <c r="C26" s="1">
-        <v>901.613000</v>
+        <v>901.61300000000006</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.509000</v>
+        <v>-202.50899999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>29908.968663</v>
       </c>
       <c r="G26" s="1">
-        <v>8.308047</v>
+        <v>8.3080470000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>919.396000</v>
+        <v>919.39599999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.413000</v>
+        <v>-171.41300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>29919.500728</v>
+        <v>29919.500727999999</v>
       </c>
       <c r="L26" s="1">
-        <v>8.310972</v>
+        <v>8.3109719999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>942.815000</v>
+        <v>942.81500000000005</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.993000</v>
+        <v>-120.99299999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>29930.305099</v>
+        <v>29930.305099000001</v>
       </c>
       <c r="Q26" s="1">
         <v>8.313974</v>
       </c>
       <c r="R26" s="1">
-        <v>949.713000</v>
+        <v>949.71299999999997</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.447000</v>
+        <v>-104.447</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>29940.453215</v>
+        <v>29940.453215000001</v>
       </c>
       <c r="V26" s="1">
-        <v>8.316793</v>
+        <v>8.3167930000000005</v>
       </c>
       <c r="W26" s="1">
-        <v>956.215000</v>
+        <v>956.21500000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.074800</v>
+        <v>-89.074799999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>29950.810208</v>
+        <v>29950.810207999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.319670</v>
+        <v>8.3196700000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.222000</v>
+        <v>963.22199999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.098400</v>
+        <v>-77.098399999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>29960.929059</v>
+        <v>29960.929058999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.322480</v>
+        <v>8.3224800000000005</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.837000</v>
+        <v>967.83699999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.829100</v>
+        <v>-74.829099999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>29971.446724</v>
+        <v>29971.446724000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.325402</v>
+        <v>8.3254020000000004</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.974000</v>
+        <v>974.97400000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.364000</v>
+        <v>-79.364000000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>29982.046726</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.328346</v>
+        <v>8.3283459999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.978000</v>
+        <v>982.97799999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.784600</v>
+        <v>-90.784599999999998</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>29993.194327</v>
+        <v>29993.194327000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>8.331443</v>
+        <v>8.3314430000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>992.707000</v>
+        <v>992.70699999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.312000</v>
+        <v>-108.312</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>30004.174745</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.334493</v>
+        <v>8.3344930000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>1000.940000</v>
+        <v>1000.94</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.860000</v>
+        <v>-123.86</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>30015.532173</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.337648</v>
+        <v>8.3376479999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1039.270000</v>
+        <v>1039.27</v>
       </c>
       <c r="BG26" s="1">
-        <v>-195.259000</v>
+        <v>-195.25899999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>30026.628140</v>
+        <v>30026.628140000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.340730</v>
+        <v>8.3407300000000006</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.240000</v>
+        <v>1105.24</v>
       </c>
       <c r="BL26" s="1">
-        <v>-311.350000</v>
+        <v>-311.35000000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>30037.340078</v>
+        <v>30037.340078000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.343706</v>
+        <v>8.3437059999999992</v>
       </c>
       <c r="BP26" s="1">
-        <v>1212.390000</v>
+        <v>1212.3900000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-494.816000</v>
+        <v>-494.81599999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>30048.488987</v>
+        <v>30048.488987000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.346802</v>
+        <v>8.3468020000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>1333.600000</v>
+        <v>1333.6</v>
       </c>
       <c r="BV26" s="1">
-        <v>-696.440000</v>
+        <v>-696.44</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>30059.665168</v>
@@ -6874,30 +7290,31 @@
         <v>8.349907</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1468.820000</v>
+        <v>1468.82</v>
       </c>
       <c r="CA26" s="1">
-        <v>-911.608000</v>
+        <v>-911.60799999999995</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>30073.616637</v>
+        <v>30073.616636999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.353782</v>
+        <v>8.3537820000000007</v>
       </c>
       <c r="CE26" s="1">
-        <v>1825.140000</v>
+        <v>1825.14</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1423.150000</v>
+        <v>-1423.15</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>